--- a/data/hotels_by_city/Dallas/Dallas_shard_781.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_781.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="206">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,508 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r445122162-WoodSpring_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>55732</t>
+  </si>
+  <si>
+    <t>911617</t>
+  </si>
+  <si>
+    <t>445122162</t>
+  </si>
+  <si>
+    <t>12/18/2016</t>
+  </si>
+  <si>
+    <t>A place like home</t>
+  </si>
+  <si>
+    <t>Stayed several weeks here on a business trip and I was very impressed with the friendliness and hospitality shown by Sammy and Scott. My minor concerns were addressed promptly and your warm smiles were greatly apreciated.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Stephen S, Manager at WoodSpring Suites Denton, responded to this reviewResponded December 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 30, 2016</t>
+  </si>
+  <si>
+    <t>Stayed several weeks here on a business trip and I was very impressed with the friendliness and hospitality shown by Sammy and Scott. My minor concerns were addressed promptly and your warm smiles were greatly apreciated.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r444100083-WoodSpring_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>444100083</t>
+  </si>
+  <si>
+    <t>12/13/2016</t>
+  </si>
+  <si>
+    <t>Worst Experience Evder</t>
+  </si>
+  <si>
+    <t>Managment is rude and does not address any problems. Our room was dirty, Scott at the front desk was extremley rude and rolled his eyes at me when I complained to him, and I heard him complain about me to the other girl working the desk as I walked away.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Managment is rude and does not address any problems. Our room was dirty, Scott at the front desk was extremley rude and rolled his eyes at me when I complained to him, and I heard him complain about me to the other girl working the desk as I walked away.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r426488937-WoodSpring_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>426488937</t>
+  </si>
+  <si>
+    <t>10/09/2016</t>
+  </si>
+  <si>
+    <t>Don't do it.</t>
+  </si>
+  <si>
+    <t>Everywhere else in the area was sold out, so I took the chance. Bad idea. First, let me say that there is no refund for checking out early, and it was bad enough that we left anyway. So I'm paying tonight for that room and a nice clean one at Hampton Inn.Although the pictures are true, they don't let you smell the smoke and stink that is in the motel.  The bathroom sink still had hair on it still.  The beds had clean sheets, but the pillows and bedspread were still off the beds, THANK HEAVENS, cuz the bedspreads  were DISGUSTING brown and nasty.  We went to Walmart and bought cheap blankets to sleep under.  The beds are nothing more than a hard mattress on a large cot.We checked in very early, or I'm afraid what we would have gotten.  And thing is, I paid only $20 more dollars here at this way way nicer hotel. If only they would have had rooms available for last night!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Stephen S, District Manager at WoodSpring Suites Denton, responded to this reviewResponded October 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 30, 2016</t>
+  </si>
+  <si>
+    <t>Everywhere else in the area was sold out, so I took the chance. Bad idea. First, let me say that there is no refund for checking out early, and it was bad enough that we left anyway. So I'm paying tonight for that room and a nice clean one at Hampton Inn.Although the pictures are true, they don't let you smell the smoke and stink that is in the motel.  The bathroom sink still had hair on it still.  The beds had clean sheets, but the pillows and bedspread were still off the beds, THANK HEAVENS, cuz the bedspreads  were DISGUSTING brown and nasty.  We went to Walmart and bought cheap blankets to sleep under.  The beds are nothing more than a hard mattress on a large cot.We checked in very early, or I'm afraid what we would have gotten.  And thing is, I paid only $20 more dollars here at this way way nicer hotel. If only they would have had rooms available for last night!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r359118037-WoodSpring_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>359118037</t>
+  </si>
+  <si>
+    <t>03/27/2016</t>
+  </si>
+  <si>
+    <t>Housekeeping very rude!</t>
+  </si>
+  <si>
+    <t>Interacted with "lady" named Kandi...housekeeper during day...asked for trash bags nd couple towels...she was very rude nd told me to go to front desk for supplies cuz she had full list of rooms to do!! She didn't address me as a guest or even look at me...she was TOO BUSY.....will NEVER stay here again...</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r347965577-WoodSpring_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>347965577</t>
+  </si>
+  <si>
+    <t>02/15/2016</t>
+  </si>
+  <si>
+    <t>Great service and very nice staff</t>
+  </si>
+  <si>
+    <t>Michelle ( manager) is a very respectful, helpful, and overall great member of the value place staff. Brandy, candy, jasmine make a wonderful team and will make sure you're perfectly accommodated even if its the smallest request. I highly recommend value place in Denton,TX. I had a great experience myself and will return if I ever need a hotel for any reason.      .             A. Schrouf</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r345461813-WoodSpring_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>345461813</t>
+  </si>
+  <si>
+    <t>02/06/2016</t>
+  </si>
+  <si>
+    <t>NO WAY</t>
+  </si>
+  <si>
+    <t>We stayed at The Value Place from August 2015-February 6th. I would not recommend this place to anyone! The police were always there for something, the staff needs classes on how to treat others and that its probably not a good idea to steal from a credit card that's not yours? We were asked to leave due to late payments when I made a verbal agreement with the manager that Friday's were okay? We had a lot of stuff in there and I was given 3 hours to leave. I was treated in humanely. The one and ONLY employee that genuinely cares is Candy! She always made sure we were taken care of and she is always working. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>We stayed at The Value Place from August 2015-February 6th. I would not recommend this place to anyone! The police were always there for something, the staff needs classes on how to treat others and that its probably not a good idea to steal from a credit card that's not yours? We were asked to leave due to late payments when I made a verbal agreement with the manager that Friday's were okay? We had a lot of stuff in there and I was given 3 hours to leave. I was treated in humanely. The one and ONLY employee that genuinely cares is Candy! She always made sure we were taken care of and she is always working. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r309097870-WoodSpring_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>309097870</t>
+  </si>
+  <si>
+    <t>09/10/2015</t>
+  </si>
+  <si>
+    <t>Only Home Could be Better</t>
+  </si>
+  <si>
+    <t>Awesome stay at this Value Place!  I made a trip to Texas recently to visit some family and get away from Illinois for a bit.  I was slightly skeptical about staying at a Value Place since I am not familiar with this brand at all.  I am a stickler for cleanliness when I stay at hotels and when I checked into my room it was so clean.  I was surprised because when I stay at typical hotels I always find at least one thing that is icky.  I can't begin to explain what a pleasure it was dealing with everyone at this location.  They were all so personable and friendly, greeted me with warm smiles and always a "how are you today?".  Brandy was always so warm and delightful, and the Manager was always such a pleasure to converse with.  I didn't get the pleasure of interacting with everyone at this hotel but the ones I did come in contact with always made me feel so warm and comfortable, like I was an extension of their family.  The maintenance man Carlos was such a sweet fellow, he fixed my kitchen light straight away when the light bulb blew out.  I just cannot say enough about this location, the staff and the rooms!  Like I said the only place better would be home!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Awesome stay at this Value Place!  I made a trip to Texas recently to visit some family and get away from Illinois for a bit.  I was slightly skeptical about staying at a Value Place since I am not familiar with this brand at all.  I am a stickler for cleanliness when I stay at hotels and when I checked into my room it was so clean.  I was surprised because when I stay at typical hotels I always find at least one thing that is icky.  I can't begin to explain what a pleasure it was dealing with everyone at this location.  They were all so personable and friendly, greeted me with warm smiles and always a "how are you today?".  Brandy was always so warm and delightful, and the Manager was always such a pleasure to converse with.  I didn't get the pleasure of interacting with everyone at this hotel but the ones I did come in contact with always made me feel so warm and comfortable, like I was an extension of their family.  The maintenance man Carlos was such a sweet fellow, he fixed my kitchen light straight away when the light bulb blew out.  I just cannot say enough about this location, the staff and the rooms!  Like I said the only place better would be home!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r306488175-WoodSpring_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>306488175</t>
+  </si>
+  <si>
+    <t>09/02/2015</t>
+  </si>
+  <si>
+    <t>couldn't be any better.... perfect love it better than the one in little rock, AR</t>
+  </si>
+  <si>
+    <t>Everyone here has been super fantastic.  All of the ladies working here have been so helpful and accommodating. Upon making my reservation I requested an end room on the first floor and they had no issues accommodating my requests.  I particularly like the fact that almost everyone knows my name. I have really enjoyed my stay at this Value Place.  If you are looking for a place to stay on a budget with excellent customer service this is the place to go!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r288504694-WoodSpring_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>288504694</t>
+  </si>
+  <si>
+    <t>07/13/2015</t>
+  </si>
+  <si>
+    <t>Terrible Experience; Unacceptable Customer Service</t>
+  </si>
+  <si>
+    <t>My wife and daughter walked out of this place after only 1 night. The front desk manager was rude and belligerent. The 1st night was spent on the Smoking Room. My wife asked to be put into a Non-Smoking floor room, and the front desk manager told her, "I've got other guests coming in and I need to tend to them."
+Half an hour later the front desk told my wife that they got her a Non-Smoking room on the 1st floor. My wife went into the room and found trash in there (like the room hadn't been properly cleaned) and a urine stain on the mattress. She went back to the front desk and asked the clerk to go with her to see what she was experiencing, and the manager told the clerk, "You're not going anywhere with her."
+So my wife and daughter packed up and had to go find another place to stay.
+I called the hotel and got a very rude individual who told me that I'd not be refunded for the rest of the week's stay nights. When I tried to explain the situation to him he said, "That has nothing to do with us. I've already explained the cancelation policy to you and you don't understand it." I tried to tell him that I just wanted to explain to him what was going on, but he refused to hear me out.
+I've already called...My wife and daughter walked out of this place after only 1 night. The front desk manager was rude and belligerent. The 1st night was spent on the Smoking Room. My wife asked to be put into a Non-Smoking floor room, and the front desk manager told her, "I've got other guests coming in and I need to tend to them."Half an hour later the front desk told my wife that they got her a Non-Smoking room on the 1st floor. My wife went into the room and found trash in there (like the room hadn't been properly cleaned) and a urine stain on the mattress. She went back to the front desk and asked the clerk to go with her to see what she was experiencing, and the manager told the clerk, "You're not going anywhere with her."So my wife and daughter packed up and had to go find another place to stay.I called the hotel and got a very rude individual who told me that I'd not be refunded for the rest of the week's stay nights. When I tried to explain the situation to him he said, "That has nothing to do with us. I've already explained the cancelation policy to you and you don't understand it." I tried to tell him that I just wanted to explain to him what was going on, but he refused to hear me out.I've already called their corporate offices and lodged a complaint AND my daughter videotaped the room they were staying in just in case management at the hotel tries to claim that my family did something to the room.It was a terrible experience for them, and absolutely unacceptable customer service by the front desk. Value Place needs to revamp the staff there and terminate the individuals who made my family's one night stay there so unpleasant.Not only will we never consider staying there-No one else should.And I am launching a formal complaint with the corporate offices.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>My wife and daughter walked out of this place after only 1 night. The front desk manager was rude and belligerent. The 1st night was spent on the Smoking Room. My wife asked to be put into a Non-Smoking floor room, and the front desk manager told her, "I've got other guests coming in and I need to tend to them."
+Half an hour later the front desk told my wife that they got her a Non-Smoking room on the 1st floor. My wife went into the room and found trash in there (like the room hadn't been properly cleaned) and a urine stain on the mattress. She went back to the front desk and asked the clerk to go with her to see what she was experiencing, and the manager told the clerk, "You're not going anywhere with her."
+So my wife and daughter packed up and had to go find another place to stay.
+I called the hotel and got a very rude individual who told me that I'd not be refunded for the rest of the week's stay nights. When I tried to explain the situation to him he said, "That has nothing to do with us. I've already explained the cancelation policy to you and you don't understand it." I tried to tell him that I just wanted to explain to him what was going on, but he refused to hear me out.
+I've already called...My wife and daughter walked out of this place after only 1 night. The front desk manager was rude and belligerent. The 1st night was spent on the Smoking Room. My wife asked to be put into a Non-Smoking floor room, and the front desk manager told her, "I've got other guests coming in and I need to tend to them."Half an hour later the front desk told my wife that they got her a Non-Smoking room on the 1st floor. My wife went into the room and found trash in there (like the room hadn't been properly cleaned) and a urine stain on the mattress. She went back to the front desk and asked the clerk to go with her to see what she was experiencing, and the manager told the clerk, "You're not going anywhere with her."So my wife and daughter packed up and had to go find another place to stay.I called the hotel and got a very rude individual who told me that I'd not be refunded for the rest of the week's stay nights. When I tried to explain the situation to him he said, "That has nothing to do with us. I've already explained the cancelation policy to you and you don't understand it." I tried to tell him that I just wanted to explain to him what was going on, but he refused to hear me out.I've already called their corporate offices and lodged a complaint AND my daughter videotaped the room they were staying in just in case management at the hotel tries to claim that my family did something to the room.It was a terrible experience for them, and absolutely unacceptable customer service by the front desk. Value Place needs to revamp the staff there and terminate the individuals who made my family's one night stay there so unpleasant.Not only will we never consider staying there-No one else should.And I am launching a formal complaint with the corporate offices.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r261804553-WoodSpring_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>261804553</t>
+  </si>
+  <si>
+    <t>03/25/2015</t>
+  </si>
+  <si>
+    <t>I would not stay here again</t>
+  </si>
+  <si>
+    <t>My family won this hotel through priceline. I was shocked this place was listed on priceline. It's an extended stay and not really a place that you'd expect priceline to offer. When we arrived there was no one at the front desk to greet us. The front desk had a white slider that was closed. There is a phone across the hall on the wall and a sign stating that you can call for help. A lady approached me from inside the building and asked if I needed any help. She was on her way to the office. She checked me in. I requested two beds but they only had a room available with one "full size" bed. It was tiny. Wow, I didn't really know that hotels still used full size beds in their rooms. I had to make my kids a bed on the floor. There was no pull-out couch as it was advertised on their website. There was a small basic kitchen but not pots, pans, water pitures, coffee maker, or silverware as you would expect with a kitchenette. I had to purchase a soda in the hallway for my morning caffeine. They provide you with a basic bar of soap so make sure that you bring any toiletries (shampoo, conditioner, lotion). Also, pack your blow dryer and iron because obviously those aren't available either. There were people standing outside all the time smoking right in the...My family won this hotel through priceline. I was shocked this place was listed on priceline. It's an extended stay and not really a place that you'd expect priceline to offer. When we arrived there was no one at the front desk to greet us. The front desk had a white slider that was closed. There is a phone across the hall on the wall and a sign stating that you can call for help. A lady approached me from inside the building and asked if I needed any help. She was on her way to the office. She checked me in. I requested two beds but they only had a room available with one "full size" bed. It was tiny. Wow, I didn't really know that hotels still used full size beds in their rooms. I had to make my kids a bed on the floor. There was no pull-out couch as it was advertised on their website. There was a small basic kitchen but not pots, pans, water pitures, coffee maker, or silverware as you would expect with a kitchenette. I had to purchase a soda in the hallway for my morning caffeine. They provide you with a basic bar of soap so make sure that you bring any toiletries (shampoo, conditioner, lotion). Also, pack your blow dryer and iron because obviously those aren't available either. There were people standing outside all the time smoking right in the entrance. I really feel that we would have had a better stay at a Motel 6 and was so disappointed with this experience. I hope we never get booked at this place again. I do not recommend this place unless you really need it for an extended stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>My family won this hotel through priceline. I was shocked this place was listed on priceline. It's an extended stay and not really a place that you'd expect priceline to offer. When we arrived there was no one at the front desk to greet us. The front desk had a white slider that was closed. There is a phone across the hall on the wall and a sign stating that you can call for help. A lady approached me from inside the building and asked if I needed any help. She was on her way to the office. She checked me in. I requested two beds but they only had a room available with one "full size" bed. It was tiny. Wow, I didn't really know that hotels still used full size beds in their rooms. I had to make my kids a bed on the floor. There was no pull-out couch as it was advertised on their website. There was a small basic kitchen but not pots, pans, water pitures, coffee maker, or silverware as you would expect with a kitchenette. I had to purchase a soda in the hallway for my morning caffeine. They provide you with a basic bar of soap so make sure that you bring any toiletries (shampoo, conditioner, lotion). Also, pack your blow dryer and iron because obviously those aren't available either. There were people standing outside all the time smoking right in the...My family won this hotel through priceline. I was shocked this place was listed on priceline. It's an extended stay and not really a place that you'd expect priceline to offer. When we arrived there was no one at the front desk to greet us. The front desk had a white slider that was closed. There is a phone across the hall on the wall and a sign stating that you can call for help. A lady approached me from inside the building and asked if I needed any help. She was on her way to the office. She checked me in. I requested two beds but they only had a room available with one "full size" bed. It was tiny. Wow, I didn't really know that hotels still used full size beds in their rooms. I had to make my kids a bed on the floor. There was no pull-out couch as it was advertised on their website. There was a small basic kitchen but not pots, pans, water pitures, coffee maker, or silverware as you would expect with a kitchenette. I had to purchase a soda in the hallway for my morning caffeine. They provide you with a basic bar of soap so make sure that you bring any toiletries (shampoo, conditioner, lotion). Also, pack your blow dryer and iron because obviously those aren't available either. There were people standing outside all the time smoking right in the entrance. I really feel that we would have had a better stay at a Motel 6 and was so disappointed with this experience. I hope we never get booked at this place again. I do not recommend this place unless you really need it for an extended stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r255137810-WoodSpring_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>255137810</t>
+  </si>
+  <si>
+    <t>02/18/2015</t>
+  </si>
+  <si>
+    <t>A very good transition place!</t>
+  </si>
+  <si>
+    <t>This is my second time to stay here. I will be here a week while I am apartment hunting. The people here are friendly especially Diane. The rent is only 239/week with about 35 tax.You get a big room with fridge(full sized) and two burner oven...and sink...nice bathroom, nice wide screen television. The best place to stay in the North Dallas area if you are in transition. It is near DFW airport...about 22 miles.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Sean A, Owner at WoodSpring Suites Denton, responded to this reviewResponded February 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 25, 2015</t>
+  </si>
+  <si>
+    <t>This is my second time to stay here. I will be here a week while I am apartment hunting. The people here are friendly especially Diane. The rent is only 239/week with about 35 tax.You get a big room with fridge(full sized) and two burner oven...and sink...nice bathroom, nice wide screen television. The best place to stay in the North Dallas area if you are in transition. It is near DFW airport...about 22 miles.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r194907198-WoodSpring_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>194907198</t>
+  </si>
+  <si>
+    <t>02/21/2014</t>
+  </si>
+  <si>
+    <t>An update</t>
+  </si>
+  <si>
+    <t>I thought I'd write another review of Value Place Properties seeing as how I am approaching the fourth anniversary of my moving in.  The staff and cost continue to be a big plus.  I've stopped thinking about moving elsewhere and have been informed that I am welcome to stay as long as I like. The staff, new and old, continue to be helpful and courteous. The property is still very well maintained and clean and safe. I recently had car trouble and the manager was nice enough to pick me up at the garage.  I don't have the money to tip the way I'd like to, but try to do little things for the staff usually taking the form of a pizza for the staff members. I truly believe I am able to put off moving to an assisted living facility by being able to reside here at Value Place Properties.  I'm very lucky to have found this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>I thought I'd write another review of Value Place Properties seeing as how I am approaching the fourth anniversary of my moving in.  The staff and cost continue to be a big plus.  I've stopped thinking about moving elsewhere and have been informed that I am welcome to stay as long as I like. The staff, new and old, continue to be helpful and courteous. The property is still very well maintained and clean and safe. I recently had car trouble and the manager was nice enough to pick me up at the garage.  I don't have the money to tip the way I'd like to, but try to do little things for the staff usually taking the form of a pizza for the staff members. I truly believe I am able to put off moving to an assisted living facility by being able to reside here at Value Place Properties.  I'm very lucky to have found this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r167068374-WoodSpring_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>167068374</t>
+  </si>
+  <si>
+    <t>07/10/2013</t>
+  </si>
+  <si>
+    <t>its like home away from home</t>
+  </si>
+  <si>
+    <t>best price, clean, secure.  Never a worry.  I look for "value Place" where ever I travel. Awesome concept.  The staff is available 24 hours and its convenient to sights, parks, transportation, malls and a host of grocery stores - which is great - because you can cook any meal - IN YOUR ROOM</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r161454913-WoodSpring_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>161454913</t>
+  </si>
+  <si>
+    <t>05/21/2013</t>
+  </si>
+  <si>
+    <t>People expect so much for so little</t>
+  </si>
+  <si>
+    <t>The poor reviews obviously come from people that have no appreciation for a great place with a great price. As most know, some people live to complain and would not be happy no matter what the circumstances . There are very hard working employees at this property, that are faced with a public that expects every demand they ask for to be granted, and that is not possible while giving a great price. Despite the prior comments, and the fact I have been all over the world, this is exactly as advertised and is a great place!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Denton, responded to this reviewResponded June 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2013</t>
+  </si>
+  <si>
+    <t>The poor reviews obviously come from people that have no appreciation for a great place with a great price. As most know, some people live to complain and would not be happy no matter what the circumstances . There are very hard working employees at this property, that are faced with a public that expects every demand they ask for to be granted, and that is not possible while giving a great price. Despite the prior comments, and the fact I have been all over the world, this is exactly as advertised and is a great place!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r160398067-WoodSpring_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>160398067</t>
+  </si>
+  <si>
+    <t>05/11/2013</t>
+  </si>
+  <si>
+    <t>You must provide your own cleaning/laundry services to save</t>
+  </si>
+  <si>
+    <t>The price is lower than other quality rated hotels because they have so many rooms to lease or rent, and if you stay longer than 30 days in Texas, you won't have to pay the taxes. It is hard to get to when you exit off I-35.  I try to stay at Value Place to save money, but I have to clean my own room and do my own laundry because they will only clean your room 1x every other week and you will pay extra for the laundry service. There is a full-size fridge, microwave, and a two burner stove top in every room. The walls are paper thin, so you can hear the people next door making whoopee or hear the elephants(heavy/loud walkers) walking above you. You also have to pay a deposit when you check in and if you want it back, you have to be sure everything is clean when you leave. You also have to give them notice(a couple of days) before you leave or you will get penalized (financially). The staff there is rather lazy, as the other reports have said. I also bring my own mattress topper cause the beds are as hard as boards.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Denton, responded to this reviewResponded May 16, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 16, 2013</t>
+  </si>
+  <si>
+    <t>The price is lower than other quality rated hotels because they have so many rooms to lease or rent, and if you stay longer than 30 days in Texas, you won't have to pay the taxes. It is hard to get to when you exit off I-35.  I try to stay at Value Place to save money, but I have to clean my own room and do my own laundry because they will only clean your room 1x every other week and you will pay extra for the laundry service. There is a full-size fridge, microwave, and a two burner stove top in every room. The walls are paper thin, so you can hear the people next door making whoopee or hear the elephants(heavy/loud walkers) walking above you. You also have to pay a deposit when you check in and if you want it back, you have to be sure everything is clean when you leave. You also have to give them notice(a couple of days) before you leave or you will get penalized (financially). The staff there is rather lazy, as the other reports have said. I also bring my own mattress topper cause the beds are as hard as boards.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r124498926-WoodSpring_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>124498926</t>
+  </si>
+  <si>
+    <t>02/12/2012</t>
+  </si>
+  <si>
+    <t>HORRIBLE</t>
+  </si>
+  <si>
+    <t>BED BUGS, OVER PRICED FOR QUALITY, RUDE EMPLOYEES. . . . The most awful place away from home.  Save yourself sometime and head down the road a little bit and stay comfortably somewheres elseENOUGH SAIDMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>Heather L, Property Management Company at WoodSpring Suites Denton, responded to this reviewResponded March 9, 2012</t>
+  </si>
+  <si>
+    <t>Responded March 9, 2012</t>
+  </si>
+  <si>
+    <t>BED BUGS, OVER PRICED FOR QUALITY, RUDE EMPLOYEES. . . . The most awful place away from home.  Save yourself sometime and head down the road a little bit and stay comfortably somewheres elseENOUGH SAIDMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r121814284-WoodSpring_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>121814284</t>
+  </si>
+  <si>
+    <t>12/16/2011</t>
+  </si>
+  <si>
+    <t>nice place for long term stay</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for 2 weeks in October.  It was clean, safe and comfortable.  It's no frills but met all my needs.  The staff was friendly and helpful and the place was kept very clean and tidy.It was just off I-35 and within walking distance to a number or casual restaurants.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>Heather L, Manager at WoodSpring Suites Denton, responded to this reviewResponded July 20, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 20, 2012</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for 2 weeks in October.  It was clean, safe and comfortable.  It's no frills but met all my needs.  The staff was friendly and helpful and the place was kept very clean and tidy.It was just off I-35 and within walking distance to a number or casual restaurants.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r120755531-WoodSpring_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>120755531</t>
+  </si>
+  <si>
+    <t>11/18/2011</t>
+  </si>
+  <si>
+    <t>The Prison</t>
+  </si>
+  <si>
+    <t>I have stayed in several other 'extended stay' hotels in the past for both business and pleasure, and thought I knew what to expect. Knowing I would arrive in Denton late at night, I called ahead to make sure there would be a room and someone to greet me. I was assured there would be someone here. When I entered the building at midnight, I saw a phone on the wall with instructions to pick it up and dial a number for help. The line was answered by a young man who tried his best to get me to go away since I did not have a 'reservation'. He begrudgingly agreed to come down to the front to check me in. He gave me no introduction to the place except to hand me one of their brochures, yet he did a great job getting all my deposits and rent money. I am happy to report he is no longer with this location. There are so many things I'd like to say about this place. In order to help you make a decision about possibly staying here I will tell you this: the walls are paper thin, and you will hear EVERYTHING going on in your neighbor's room, no matter how loud you put the volume on your TV. The doors slam (like prison cell doors, hence the title) and shake the walls when they close, unless you guide them gently,...I have stayed in several other 'extended stay' hotels in the past for both business and pleasure, and thought I knew what to expect. Knowing I would arrive in Denton late at night, I called ahead to make sure there would be a room and someone to greet me. I was assured there would be someone here. When I entered the building at midnight, I saw a phone on the wall with instructions to pick it up and dial a number for help. The line was answered by a young man who tried his best to get me to go away since I did not have a 'reservation'. He begrudgingly agreed to come down to the front to check me in. He gave me no introduction to the place except to hand me one of their brochures, yet he did a great job getting all my deposits and rent money. I am happy to report he is no longer with this location. There are so many things I'd like to say about this place. In order to help you make a decision about possibly staying here I will tell you this: the walls are paper thin, and you will hear EVERYTHING going on in your neighbor's room, no matter how loud you put the volume on your TV. The doors slam (like prison cell doors, hence the title) and shake the walls when they close, unless you guide them gently, which nobody does. You will get used to the slamming in the middle of the night, and may be able to sleep through it. People come in your room under the guise of cleaning it, but unlike an apartment they leave no note letting you know they were there. You will just know by the difference in your light switch settings. The manager is nice enough, and assured me he would put a stop to it, since I clean my own room, but someone was in my room again this week. As a single woman, I found this too creepy. The place stinks. Literally. The halls abound with stale cooking smells, and my air conditioner emits a horrible stale odor despite them being professionally cleaned in October. I try to keep my window cracked to let in fresh air, and I keep a can of Febreeze handy. The bed in my room is so hard it belongs in a mortuary, and after investing in 2 memory foam toppers, I can finally say the numbness is going away in my arms.  The tub/shower combo has a nice arched curtain rod, but mine was sagging. I could tell it had been re-positioned several times already, so I put in a request to have it fixed before it fell on my head. Each week the sag got a little lower. Each week when I paid my rent, I put in a new request to have it fixed. The lady at the front always thought my shower head was dripping. Shower rod drooping, hmmm, that's close. Finally, the third week, the manager was close by as I was putting in my weekly request, and he and a maintenance man promptly came down and fixed it. He did apologize, saying he thought it had already been taken care of. The Prison is under lock down at all times, so be sure you have your entry key with you every time you leave. And do not let it come close to your car keys or it will demagnetize.If you want internet service you will pay $10 a week for it. It is pathetically slow, but when I asked about it, a very knowledgeable gentleman (on staff) let me know how bad it used to be, and how much better it is now, and that $40/month is a great deal when you consider how much THEY have to pay for it. Which brings me to the issue that gets us all. Money. I have been in the exact same room with the exact same services for 8 weeks now.The first 5 weeks I paid the exact same amount. (Once you pass the one month mark, you no longer have to pay hotel tax.) Since that time, I have only paid the same amount twice. I've been told different reasons for the changing amount: I have a credit on my account, (unexplainable) and then 2 weeks ago the internet was down almost all week, so we were given a 'free' week once it came back up. Today, I was asked for $11 more than I have been paying. When I questioned it, I was told it was for linen service.(?) I have my own towels and do my own laundry, including the sheets originally on the bed! Then I was told it was because I had not been charged for my internet for several weeks....and the more I questioned the different amount, the more I was told        she did not understand what I did not understand. I finally just paid it and shut up. I don't usually write reviews, but I want to save as many people as I possibly can from spending their hard earned money here. There are other places around that do not nickle and dime you to death, and are much more quiet. I know with this economy, these types of places are doing a lot of business. This place may seem like a great deal, but it isn't. I hope there is no issue getting my deposit back. Heaven knows my room will be left in better condition than I found it. Concerned about the other reviewer whose charge card got charged for a week's rent after they moved out, since they always ask for it and swipe it. Be warned folks. Be wise and be safe!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>I have stayed in several other 'extended stay' hotels in the past for both business and pleasure, and thought I knew what to expect. Knowing I would arrive in Denton late at night, I called ahead to make sure there would be a room and someone to greet me. I was assured there would be someone here. When I entered the building at midnight, I saw a phone on the wall with instructions to pick it up and dial a number for help. The line was answered by a young man who tried his best to get me to go away since I did not have a 'reservation'. He begrudgingly agreed to come down to the front to check me in. He gave me no introduction to the place except to hand me one of their brochures, yet he did a great job getting all my deposits and rent money. I am happy to report he is no longer with this location. There are so many things I'd like to say about this place. In order to help you make a decision about possibly staying here I will tell you this: the walls are paper thin, and you will hear EVERYTHING going on in your neighbor's room, no matter how loud you put the volume on your TV. The doors slam (like prison cell doors, hence the title) and shake the walls when they close, unless you guide them gently,...I have stayed in several other 'extended stay' hotels in the past for both business and pleasure, and thought I knew what to expect. Knowing I would arrive in Denton late at night, I called ahead to make sure there would be a room and someone to greet me. I was assured there would be someone here. When I entered the building at midnight, I saw a phone on the wall with instructions to pick it up and dial a number for help. The line was answered by a young man who tried his best to get me to go away since I did not have a 'reservation'. He begrudgingly agreed to come down to the front to check me in. He gave me no introduction to the place except to hand me one of their brochures, yet he did a great job getting all my deposits and rent money. I am happy to report he is no longer with this location. There are so many things I'd like to say about this place. In order to help you make a decision about possibly staying here I will tell you this: the walls are paper thin, and you will hear EVERYTHING going on in your neighbor's room, no matter how loud you put the volume on your TV. The doors slam (like prison cell doors, hence the title) and shake the walls when they close, unless you guide them gently, which nobody does. You will get used to the slamming in the middle of the night, and may be able to sleep through it. People come in your room under the guise of cleaning it, but unlike an apartment they leave no note letting you know they were there. You will just know by the difference in your light switch settings. The manager is nice enough, and assured me he would put a stop to it, since I clean my own room, but someone was in my room again this week. As a single woman, I found this too creepy. The place stinks. Literally. The halls abound with stale cooking smells, and my air conditioner emits a horrible stale odor despite them being professionally cleaned in October. I try to keep my window cracked to let in fresh air, and I keep a can of Febreeze handy. The bed in my room is so hard it belongs in a mortuary, and after investing in 2 memory foam toppers, I can finally say the numbness is going away in my arms.  The tub/shower combo has a nice arched curtain rod, but mine was sagging. I could tell it had been re-positioned several times already, so I put in a request to have it fixed before it fell on my head. Each week the sag got a little lower. Each week when I paid my rent, I put in a new request to have it fixed. The lady at the front always thought my shower head was dripping. Shower rod drooping, hmmm, that's close. Finally, the third week, the manager was close by as I was putting in my weekly request, and he and a maintenance man promptly came down and fixed it. He did apologize, saying he thought it had already been taken care of. The Prison is under lock down at all times, so be sure you have your entry key with you every time you leave. And do not let it come close to your car keys or it will demagnetize.If you want internet service you will pay $10 a week for it. It is pathetically slow, but when I asked about it, a very knowledgeable gentleman (on staff) let me know how bad it used to be, and how much better it is now, and that $40/month is a great deal when you consider how much THEY have to pay for it. Which brings me to the issue that gets us all. Money. I have been in the exact same room with the exact same services for 8 weeks now.The first 5 weeks I paid the exact same amount. (Once you pass the one month mark, you no longer have to pay hotel tax.) Since that time, I have only paid the same amount twice. I've been told different reasons for the changing amount: I have a credit on my account, (unexplainable) and then 2 weeks ago the internet was down almost all week, so we were given a 'free' week once it came back up. Today, I was asked for $11 more than I have been paying. When I questioned it, I was told it was for linen service.(?) I have my own towels and do my own laundry, including the sheets originally on the bed! Then I was told it was because I had not been charged for my internet for several weeks....and the more I questioned the different amount, the more I was told        she did not understand what I did not understand. I finally just paid it and shut up. I don't usually write reviews, but I want to save as many people as I possibly can from spending their hard earned money here. There are other places around that do not nickle and dime you to death, and are much more quiet. I know with this economy, these types of places are doing a lot of business. This place may seem like a great deal, but it isn't. I hope there is no issue getting my deposit back. Heaven knows my room will be left in better condition than I found it. Concerned about the other reviewer whose charge card got charged for a week's rent after they moved out, since they always ask for it and swipe it. Be warned folks. Be wise and be safe!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r108001652-WoodSpring_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>108001652</t>
+  </si>
+  <si>
+    <t>05/12/2011</t>
+  </si>
+  <si>
+    <t>~*~*~* BED BUGS!!!!!BED BUGS!!!!!!!! STAY AWAY !!!!!! ~*~*~</t>
+  </si>
+  <si>
+    <t>My colleagues and I were in the Denton area on extended business. Upon waking up this morning I discovered approximately 20 bites (total) on both legs. After speaking with a friend, I was advised to look online and see if the bites resembled bed bug bites. And they did. 
+So when I returned to the motel that morning, I spoke with the person in the office and asked that the room be checked just in case. I had to leave again, but upon my return my coworkers and I were advised that we were being kicked out of the motel!! With them insinuating that I brought them in! Really? 
+We don't have them at home because my wife saw something on the news and took precautions over a year ago to prevent them (mattress bags, etc). And this is my first sales job that has ever taken me out of town. I hate to say it, but they did not piggy back in on me or my belongings.
+So I gather, that since the sheets were FINALLY changed after a week that maybe your staff transferred them in with blankets, linens, etc? 
+I will tell you that our corporate office booked and paid for this place before we even rolled into town. Had we been made aware in the beginning that their idea of a bed is a plywood type platform with a 4 in. mattress, we would have ran...My colleagues and I were in the Denton area on extended business. Upon waking up this morning I discovered approximately 20 bites (total) on both legs. After speaking with a friend, I was advised to look online and see if the bites resembled bed bug bites. And they did. So when I returned to the motel that morning, I spoke with the person in the office and asked that the room be checked just in case. I had to leave again, but upon my return my coworkers and I were advised that we were being kicked out of the motel!! With them insinuating that I brought them in! Really? We don't have them at home because my wife saw something on the news and took precautions over a year ago to prevent them (mattress bags, etc). And this is my first sales job that has ever taken me out of town. I hate to say it, but they did not piggy back in on me or my belongings.So I gather, that since the sheets were FINALLY changed after a week that maybe your staff transferred them in with blankets, linens, etc? I will tell you that our corporate office booked and paid for this place before we even rolled into town. Had we been made aware in the beginning that their idea of a bed is a plywood type platform with a 4 in. mattress, we would have ran the other way. We should have realized something when the motel across the street was semi full and this place looked like a ghost town (and remained as such during our stay). Maybe it was because of the flat pillows, an AC unit with an attitude and a room that really stunk.At least when you go tent-camping and are on the ground, you expect the hardness and all the critters. Not when you are PAYING an establishment  basically for modern comfort and facilities!BEWARE!!!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>My colleagues and I were in the Denton area on extended business. Upon waking up this morning I discovered approximately 20 bites (total) on both legs. After speaking with a friend, I was advised to look online and see if the bites resembled bed bug bites. And they did. 
+So when I returned to the motel that morning, I spoke with the person in the office and asked that the room be checked just in case. I had to leave again, but upon my return my coworkers and I were advised that we were being kicked out of the motel!! With them insinuating that I brought them in! Really? 
+We don't have them at home because my wife saw something on the news and took precautions over a year ago to prevent them (mattress bags, etc). And this is my first sales job that has ever taken me out of town. I hate to say it, but they did not piggy back in on me or my belongings.
+So I gather, that since the sheets were FINALLY changed after a week that maybe your staff transferred them in with blankets, linens, etc? 
+I will tell you that our corporate office booked and paid for this place before we even rolled into town. Had we been made aware in the beginning that their idea of a bed is a plywood type platform with a 4 in. mattress, we would have ran...My colleagues and I were in the Denton area on extended business. Upon waking up this morning I discovered approximately 20 bites (total) on both legs. After speaking with a friend, I was advised to look online and see if the bites resembled bed bug bites. And they did. So when I returned to the motel that morning, I spoke with the person in the office and asked that the room be checked just in case. I had to leave again, but upon my return my coworkers and I were advised that we were being kicked out of the motel!! With them insinuating that I brought them in! Really? We don't have them at home because my wife saw something on the news and took precautions over a year ago to prevent them (mattress bags, etc). And this is my first sales job that has ever taken me out of town. I hate to say it, but they did not piggy back in on me or my belongings.So I gather, that since the sheets were FINALLY changed after a week that maybe your staff transferred them in with blankets, linens, etc? I will tell you that our corporate office booked and paid for this place before we even rolled into town. Had we been made aware in the beginning that their idea of a bed is a plywood type platform with a 4 in. mattress, we would have ran the other way. We should have realized something when the motel across the street was semi full and this place looked like a ghost town (and remained as such during our stay). Maybe it was because of the flat pillows, an AC unit with an attitude and a room that really stunk.At least when you go tent-camping and are on the ground, you expect the hardness and all the critters. Not when you are PAYING an establishment  basically for modern comfort and facilities!BEWARE!!!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r83330329-WoodSpring_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>83330329</t>
+  </si>
+  <si>
+    <t>10/13/2010</t>
+  </si>
+  <si>
+    <t>Beats sleeping under a bridge</t>
+  </si>
+  <si>
+    <t>It is fairly clean and new in at first glance, I guess roaches are to be expected occasionally,I only saw 3 or 4 every week. Management was very unaccomadating making me wait 3 weeks to have room cleaned and linen changed after due to my misunderstanding missingthe scheduled cleaning day. If by chance you've made the mistake of paying for a week up front and encounter poor services or roaches and wish to leave early you will not be reembursed for any days remaining during the week. Be prepared to buy toliet paper take your trash to the dumpster, and heaven forbid don't go barefoot or according to the contract you will be evicted. No wireless so bring an ethernet cable and be ready to be nickled and dimed internet service is $10 a day. Overall I would say that this is the least customer friendly or accomidating hotel I have ever stayed in and it can not come close to measuring up to anyones expectations.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>It is fairly clean and new in at first glance, I guess roaches are to be expected occasionally,I only saw 3 or 4 every week. Management was very unaccomadating making me wait 3 weeks to have room cleaned and linen changed after due to my misunderstanding missingthe scheduled cleaning day. If by chance you've made the mistake of paying for a week up front and encounter poor services or roaches and wish to leave early you will not be reembursed for any days remaining during the week. Be prepared to buy toliet paper take your trash to the dumpster, and heaven forbid don't go barefoot or according to the contract you will be evicted. No wireless so bring an ethernet cable and be ready to be nickled and dimed internet service is $10 a day. Overall I would say that this is the least customer friendly or accomidating hotel I have ever stayed in and it can not come close to measuring up to anyones expectations.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r30112248-WoodSpring_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>30112248</t>
+  </si>
+  <si>
+    <t>05/16/2009</t>
+  </si>
+  <si>
+    <t>The cleanest place in Denton!</t>
+  </si>
+  <si>
+    <t>Not only was it the cleanest hotel I have ever stayed in, the staff went the extra step to enssure we where takin care of! When we arrived to Denton, we checked out several of the hotels along 35E and 35N. Every hotel we went in we were snubbed by the staff and they had extremly dirty rooms (the two that took us on tour ONLY after begging to see their rooms). We ended up seeing the Value Place thinking it would be another run down low budget super 8 or something... Guess again!! From the minute we walked in we were greeted by the manager who then took us on a tour of the property, he even went as far to tell us the history behind the franchise. We knew the minute we went in the first room we would be staying there!!! Highlly recommend the Value Place for anyone coming to Denton!! A+++MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2009</t>
+  </si>
+  <si>
+    <t>Not only was it the cleanest hotel I have ever stayed in, the staff went the extra step to enssure we where takin care of! When we arrived to Denton, we checked out several of the hotels along 35E and 35N. Every hotel we went in we were snubbed by the staff and they had extremly dirty rooms (the two that took us on tour ONLY after begging to see their rooms). We ended up seeing the Value Place thinking it would be another run down low budget super 8 or something... Guess again!! From the minute we walked in we were greeted by the manager who then took us on a tour of the property, he even went as far to tell us the history behind the franchise. We knew the minute we went in the first room we would be staying there!!! Highlly recommend the Value Place for anyone coming to Denton!! A+++More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1150,1377 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>57058</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>57058</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>57058</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" t="s">
+        <v>63</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>71</v>
+      </c>
+      <c r="X4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>57058</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" t="s">
+        <v>63</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>57058</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
+        <v>85</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>57058</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>91</v>
+      </c>
+      <c r="O7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>57058</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L8" t="s">
+        <v>97</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>57058</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" t="s">
+        <v>104</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>57058</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>110</v>
+      </c>
+      <c r="O10" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>57058</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" t="s">
+        <v>116</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>117</v>
+      </c>
+      <c r="O11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>57058</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>119</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>120</v>
+      </c>
+      <c r="J12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K12" t="s">
+        <v>122</v>
+      </c>
+      <c r="L12" t="s">
+        <v>123</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>124</v>
+      </c>
+      <c r="O12" t="s">
+        <v>125</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>126</v>
+      </c>
+      <c r="X12" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>57058</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>130</v>
+      </c>
+      <c r="J13" t="s">
+        <v>131</v>
+      </c>
+      <c r="K13" t="s">
+        <v>132</v>
+      </c>
+      <c r="L13" t="s">
+        <v>133</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>134</v>
+      </c>
+      <c r="O13" t="s">
+        <v>125</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>57058</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>136</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>137</v>
+      </c>
+      <c r="J14" t="s">
+        <v>138</v>
+      </c>
+      <c r="K14" t="s">
+        <v>139</v>
+      </c>
+      <c r="L14" t="s">
+        <v>140</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>141</v>
+      </c>
+      <c r="O14" t="s">
+        <v>125</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>57058</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>142</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>143</v>
+      </c>
+      <c r="J15" t="s">
+        <v>144</v>
+      </c>
+      <c r="K15" t="s">
+        <v>145</v>
+      </c>
+      <c r="L15" t="s">
+        <v>146</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>147</v>
+      </c>
+      <c r="O15" t="s">
+        <v>63</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>148</v>
+      </c>
+      <c r="X15" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>57058</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>151</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>152</v>
+      </c>
+      <c r="J16" t="s">
+        <v>153</v>
+      </c>
+      <c r="K16" t="s">
+        <v>154</v>
+      </c>
+      <c r="L16" t="s">
+        <v>155</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>156</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>157</v>
+      </c>
+      <c r="X16" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>57058</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>160</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>161</v>
+      </c>
+      <c r="J17" t="s">
+        <v>162</v>
+      </c>
+      <c r="K17" t="s">
+        <v>163</v>
+      </c>
+      <c r="L17" t="s">
+        <v>164</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>165</v>
+      </c>
+      <c r="O17" t="s">
+        <v>125</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>166</v>
+      </c>
+      <c r="X17" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>57058</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>169</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>170</v>
+      </c>
+      <c r="J18" t="s">
+        <v>171</v>
+      </c>
+      <c r="K18" t="s">
+        <v>172</v>
+      </c>
+      <c r="L18" t="s">
+        <v>173</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>174</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>175</v>
+      </c>
+      <c r="X18" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>57058</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>178</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>179</v>
+      </c>
+      <c r="J19" t="s">
+        <v>180</v>
+      </c>
+      <c r="K19" t="s">
+        <v>181</v>
+      </c>
+      <c r="L19" t="s">
+        <v>182</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>183</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>2</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>57058</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>185</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>186</v>
+      </c>
+      <c r="J20" t="s">
+        <v>187</v>
+      </c>
+      <c r="K20" t="s">
+        <v>188</v>
+      </c>
+      <c r="L20" t="s">
+        <v>189</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>190</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>57058</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>192</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>193</v>
+      </c>
+      <c r="J21" t="s">
+        <v>194</v>
+      </c>
+      <c r="K21" t="s">
+        <v>195</v>
+      </c>
+      <c r="L21" t="s">
+        <v>196</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>197</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>57058</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>199</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>200</v>
+      </c>
+      <c r="J22" t="s">
+        <v>201</v>
+      </c>
+      <c r="K22" t="s">
+        <v>202</v>
+      </c>
+      <c r="L22" t="s">
+        <v>203</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>204</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>175</v>
+      </c>
+      <c r="X22" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>205</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_781.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_781.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="227">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Lisa B</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>Stayed several weeks here on a business trip and I was very impressed with the friendliness and hospitality shown by Sammy and Scott. My minor concerns were addressed promptly and your warm smiles were greatly apreciated.More</t>
   </si>
   <si>
+    <t>793jacobi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r444100083-WoodSpring_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -213,6 +219,9 @@
     <t>Managment is rude and does not address any problems. Our room was dirty, Scott at the front desk was extremley rude and rolled his eyes at me when I complained to him, and I heard him complain about me to the other girl working the desk as I walked away.More</t>
   </si>
   <si>
+    <t>Vicki S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r426488937-WoodSpring_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -240,6 +249,9 @@
     <t>Everywhere else in the area was sold out, so I took the chance. Bad idea. First, let me say that there is no refund for checking out early, and it was bad enough that we left anyway. So I'm paying tonight for that room and a nice clean one at Hampton Inn.Although the pictures are true, they don't let you smell the smoke and stink that is in the motel.  The bathroom sink still had hair on it still.  The beds had clean sheets, but the pillows and bedspread were still off the beds, THANK HEAVENS, cuz the bedspreads  were DISGUSTING brown and nasty.  We went to Walmart and bought cheap blankets to sleep under.  The beds are nothing more than a hard mattress on a large cot.We checked in very early, or I'm afraid what we would have gotten.  And thing is, I paid only $20 more dollars here at this way way nicer hotel. If only they would have had rooms available for last night!More</t>
   </si>
   <si>
+    <t>Linden  B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r359118037-WoodSpring_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -258,6 +270,9 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>aschrouf91</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r347965577-WoodSpring_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -276,6 +291,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Ashley L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r345461813-WoodSpring_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -297,6 +315,9 @@
     <t>We stayed at The Value Place from August 2015-February 6th. I would not recommend this place to anyone! The police were always there for something, the staff needs classes on how to treat others and that its probably not a good idea to steal from a credit card that's not yours? We were asked to leave due to late payments when I made a verbal agreement with the manager that Friday's were okay? We had a lot of stuff in there and I was given 3 hours to leave. I was treated in humanely. The one and ONLY employee that genuinely cares is Candy! She always made sure we were taken care of and she is always working. More</t>
   </si>
   <si>
+    <t>Liyana T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r309097870-WoodSpring_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -318,6 +339,9 @@
     <t>Awesome stay at this Value Place!  I made a trip to Texas recently to visit some family and get away from Illinois for a bit.  I was slightly skeptical about staying at a Value Place since I am not familiar with this brand at all.  I am a stickler for cleanliness when I stay at hotels and when I checked into my room it was so clean.  I was surprised because when I stay at typical hotels I always find at least one thing that is icky.  I can't begin to explain what a pleasure it was dealing with everyone at this location.  They were all so personable and friendly, greeted me with warm smiles and always a "how are you today?".  Brandy was always so warm and delightful, and the Manager was always such a pleasure to converse with.  I didn't get the pleasure of interacting with everyone at this hotel but the ones I did come in contact with always made me feel so warm and comfortable, like I was an extension of their family.  The maintenance man Carlos was such a sweet fellow, he fixed my kitchen light straight away when the light bulb blew out.  I just cannot say enough about this location, the staff and the rooms!  Like I said the only place better would be home!More</t>
   </si>
   <si>
+    <t>RoyRV</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r306488175-WoodSpring_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -331,6 +355,9 @@
   </si>
   <si>
     <t>Everyone here has been super fantastic.  All of the ladies working here have been so helpful and accommodating. Upon making my reservation I requested an end room on the first floor and they had no issues accommodating my requests.  I particularly like the fact that almost everyone knows my name. I have really enjoyed my stay at this Value Place.  If you are looking for a place to stay on a budget with excellent customer service this is the place to go!</t>
+  </si>
+  <si>
+    <t>paulslevy</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r288504694-WoodSpring_Suites_Denton-Denton_Texas.html</t>
@@ -362,6 +389,9 @@
 I've already called...My wife and daughter walked out of this place after only 1 night. The front desk manager was rude and belligerent. The 1st night was spent on the Smoking Room. My wife asked to be put into a Non-Smoking floor room, and the front desk manager told her, "I've got other guests coming in and I need to tend to them."Half an hour later the front desk told my wife that they got her a Non-Smoking room on the 1st floor. My wife went into the room and found trash in there (like the room hadn't been properly cleaned) and a urine stain on the mattress. She went back to the front desk and asked the clerk to go with her to see what she was experiencing, and the manager told the clerk, "You're not going anywhere with her."So my wife and daughter packed up and had to go find another place to stay.I called the hotel and got a very rude individual who told me that I'd not be refunded for the rest of the week's stay nights. When I tried to explain the situation to him he said, "That has nothing to do with us. I've already explained the cancelation policy to you and you don't understand it." I tried to tell him that I just wanted to explain to him what was going on, but he refused to hear me out.I've already called their corporate offices and lodged a complaint AND my daughter videotaped the room they were staying in just in case management at the hotel tries to claim that my family did something to the room.It was a terrible experience for them, and absolutely unacceptable customer service by the front desk. Value Place needs to revamp the staff there and terminate the individuals who made my family's one night stay there so unpleasant.Not only will we never consider staying there-No one else should.And I am launching a formal complaint with the corporate offices.More</t>
   </si>
   <si>
+    <t>MelindaLongoria</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r261804553-WoodSpring_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -383,6 +413,9 @@
     <t>My family won this hotel through priceline. I was shocked this place was listed on priceline. It's an extended stay and not really a place that you'd expect priceline to offer. When we arrived there was no one at the front desk to greet us. The front desk had a white slider that was closed. There is a phone across the hall on the wall and a sign stating that you can call for help. A lady approached me from inside the building and asked if I needed any help. She was on her way to the office. She checked me in. I requested two beds but they only had a room available with one "full size" bed. It was tiny. Wow, I didn't really know that hotels still used full size beds in their rooms. I had to make my kids a bed on the floor. There was no pull-out couch as it was advertised on their website. There was a small basic kitchen but not pots, pans, water pitures, coffee maker, or silverware as you would expect with a kitchenette. I had to purchase a soda in the hallway for my morning caffeine. They provide you with a basic bar of soap so make sure that you bring any toiletries (shampoo, conditioner, lotion). Also, pack your blow dryer and iron because obviously those aren't available either. There were people standing outside all the time smoking right in the...My family won this hotel through priceline. I was shocked this place was listed on priceline. It's an extended stay and not really a place that you'd expect priceline to offer. When we arrived there was no one at the front desk to greet us. The front desk had a white slider that was closed. There is a phone across the hall on the wall and a sign stating that you can call for help. A lady approached me from inside the building and asked if I needed any help. She was on her way to the office. She checked me in. I requested two beds but they only had a room available with one "full size" bed. It was tiny. Wow, I didn't really know that hotels still used full size beds in their rooms. I had to make my kids a bed on the floor. There was no pull-out couch as it was advertised on their website. There was a small basic kitchen but not pots, pans, water pitures, coffee maker, or silverware as you would expect with a kitchenette. I had to purchase a soda in the hallway for my morning caffeine. They provide you with a basic bar of soap so make sure that you bring any toiletries (shampoo, conditioner, lotion). Also, pack your blow dryer and iron because obviously those aren't available either. There were people standing outside all the time smoking right in the entrance. I really feel that we would have had a better stay at a Motel 6 and was so disappointed with this experience. I hope we never get booked at this place again. I do not recommend this place unless you really need it for an extended stay.More</t>
   </si>
   <si>
+    <t>John T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r255137810-WoodSpring_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -413,6 +446,9 @@
     <t>This is my second time to stay here. I will be here a week while I am apartment hunting. The people here are friendly especially Diane. The rent is only 239/week with about 35 tax.You get a big room with fridge(full sized) and two burner oven...and sink...nice bathroom, nice wide screen television. The best place to stay in the North Dallas area if you are in transition. It is near DFW airport...about 22 miles.More</t>
   </si>
   <si>
+    <t>Mazaranne</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r194907198-WoodSpring_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -434,6 +470,9 @@
     <t>I thought I'd write another review of Value Place Properties seeing as how I am approaching the fourth anniversary of my moving in.  The staff and cost continue to be a big plus.  I've stopped thinking about moving elsewhere and have been informed that I am welcome to stay as long as I like. The staff, new and old, continue to be helpful and courteous. The property is still very well maintained and clean and safe. I recently had car trouble and the manager was nice enough to pick me up at the garage.  I don't have the money to tip the way I'd like to, but try to do little things for the staff usually taking the form of a pizza for the staff members. I truly believe I am able to put off moving to an assisted living facility by being able to reside here at Value Place Properties.  I'm very lucky to have found this place.More</t>
   </si>
   <si>
+    <t>kevin o</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r167068374-WoodSpring_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -452,6 +491,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>Lane D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r161454913-WoodSpring_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -479,6 +521,9 @@
     <t>The poor reviews obviously come from people that have no appreciation for a great place with a great price. As most know, some people live to complain and would not be happy no matter what the circumstances . There are very hard working employees at this property, that are faced with a public that expects every demand they ask for to be granted, and that is not possible while giving a great price. Despite the prior comments, and the fact I have been all over the world, this is exactly as advertised and is a great place!!!!!More</t>
   </si>
   <si>
+    <t>Ilovetogoawandering</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r160398067-WoodSpring_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -506,6 +551,9 @@
     <t>The price is lower than other quality rated hotels because they have so many rooms to lease or rent, and if you stay longer than 30 days in Texas, you won't have to pay the taxes. It is hard to get to when you exit off I-35.  I try to stay at Value Place to save money, but I have to clean my own room and do my own laundry because they will only clean your room 1x every other week and you will pay extra for the laundry service. There is a full-size fridge, microwave, and a two burner stove top in every room. The walls are paper thin, so you can hear the people next door making whoopee or hear the elephants(heavy/loud walkers) walking above you. You also have to pay a deposit when you check in and if you want it back, you have to be sure everything is clean when you leave. You also have to give them notice(a couple of days) before you leave or you will get penalized (financially). The staff there is rather lazy, as the other reports have said. I also bring my own mattress topper cause the beds are as hard as boards.More</t>
   </si>
   <si>
+    <t>Tank S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r124498926-WoodSpring_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -533,6 +581,9 @@
     <t>BED BUGS, OVER PRICED FOR QUALITY, RUDE EMPLOYEES. . . . The most awful place away from home.  Save yourself sometime and head down the road a little bit and stay comfortably somewheres elseENOUGH SAIDMore</t>
   </si>
   <si>
+    <t>jmckib</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r121814284-WoodSpring_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -560,6 +611,9 @@
     <t>I stayed at this hotel for 2 weeks in October.  It was clean, safe and comfortable.  It's no frills but met all my needs.  The staff was friendly and helpful and the place was kept very clean and tidy.It was just off I-35 and within walking distance to a number or casual restaurants.More</t>
   </si>
   <si>
+    <t>CIndy F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r120755531-WoodSpring_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -579,6 +633,9 @@
   </si>
   <si>
     <t>I have stayed in several other 'extended stay' hotels in the past for both business and pleasure, and thought I knew what to expect. Knowing I would arrive in Denton late at night, I called ahead to make sure there would be a room and someone to greet me. I was assured there would be someone here. When I entered the building at midnight, I saw a phone on the wall with instructions to pick it up and dial a number for help. The line was answered by a young man who tried his best to get me to go away since I did not have a 'reservation'. He begrudgingly agreed to come down to the front to check me in. He gave me no introduction to the place except to hand me one of their brochures, yet he did a great job getting all my deposits and rent money. I am happy to report he is no longer with this location. There are so many things I'd like to say about this place. In order to help you make a decision about possibly staying here I will tell you this: the walls are paper thin, and you will hear EVERYTHING going on in your neighbor's room, no matter how loud you put the volume on your TV. The doors slam (like prison cell doors, hence the title) and shake the walls when they close, unless you guide them gently,...I have stayed in several other 'extended stay' hotels in the past for both business and pleasure, and thought I knew what to expect. Knowing I would arrive in Denton late at night, I called ahead to make sure there would be a room and someone to greet me. I was assured there would be someone here. When I entered the building at midnight, I saw a phone on the wall with instructions to pick it up and dial a number for help. The line was answered by a young man who tried his best to get me to go away since I did not have a 'reservation'. He begrudgingly agreed to come down to the front to check me in. He gave me no introduction to the place except to hand me one of their brochures, yet he did a great job getting all my deposits and rent money. I am happy to report he is no longer with this location. There are so many things I'd like to say about this place. In order to help you make a decision about possibly staying here I will tell you this: the walls are paper thin, and you will hear EVERYTHING going on in your neighbor's room, no matter how loud you put the volume on your TV. The doors slam (like prison cell doors, hence the title) and shake the walls when they close, unless you guide them gently, which nobody does. You will get used to the slamming in the middle of the night, and may be able to sleep through it. People come in your room under the guise of cleaning it, but unlike an apartment they leave no note letting you know they were there. You will just know by the difference in your light switch settings. The manager is nice enough, and assured me he would put a stop to it, since I clean my own room, but someone was in my room again this week. As a single woman, I found this too creepy. The place stinks. Literally. The halls abound with stale cooking smells, and my air conditioner emits a horrible stale odor despite them being professionally cleaned in October. I try to keep my window cracked to let in fresh air, and I keep a can of Febreeze handy. The bed in my room is so hard it belongs in a mortuary, and after investing in 2 memory foam toppers, I can finally say the numbness is going away in my arms.  The tub/shower combo has a nice arched curtain rod, but mine was sagging. I could tell it had been re-positioned several times already, so I put in a request to have it fixed before it fell on my head. Each week the sag got a little lower. Each week when I paid my rent, I put in a new request to have it fixed. The lady at the front always thought my shower head was dripping. Shower rod drooping, hmmm, that's close. Finally, the third week, the manager was close by as I was putting in my weekly request, and he and a maintenance man promptly came down and fixed it. He did apologize, saying he thought it had already been taken care of. The Prison is under lock down at all times, so be sure you have your entry key with you every time you leave. And do not let it come close to your car keys or it will demagnetize.If you want internet service you will pay $10 a week for it. It is pathetically slow, but when I asked about it, a very knowledgeable gentleman (on staff) let me know how bad it used to be, and how much better it is now, and that $40/month is a great deal when you consider how much THEY have to pay for it. Which brings me to the issue that gets us all. Money. I have been in the exact same room with the exact same services for 8 weeks now.The first 5 weeks I paid the exact same amount. (Once you pass the one month mark, you no longer have to pay hotel tax.) Since that time, I have only paid the same amount twice. I've been told different reasons for the changing amount: I have a credit on my account, (unexplainable) and then 2 weeks ago the internet was down almost all week, so we were given a 'free' week once it came back up. Today, I was asked for $11 more than I have been paying. When I questioned it, I was told it was for linen service.(?) I have my own towels and do my own laundry, including the sheets originally on the bed! Then I was told it was because I had not been charged for my internet for several weeks....and the more I questioned the different amount, the more I was told        she did not understand what I did not understand. I finally just paid it and shut up. I don't usually write reviews, but I want to save as many people as I possibly can from spending their hard earned money here. There are other places around that do not nickle and dime you to death, and are much more quiet. I know with this economy, these types of places are doing a lot of business. This place may seem like a great deal, but it isn't. I hope there is no issue getting my deposit back. Heaven knows my room will be left in better condition than I found it. Concerned about the other reviewer whose charge card got charged for a week's rent after they moved out, since they always ask for it and swipe it. Be warned folks. Be wise and be safe!More</t>
+  </si>
+  <si>
+    <t>Bull2172</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r108001652-WoodSpring_Suites_Denton-Denton_Texas.html</t>
@@ -610,6 +667,9 @@
 I will tell you that our corporate office booked and paid for this place before we even rolled into town. Had we been made aware in the beginning that their idea of a bed is a plywood type platform with a 4 in. mattress, we would have ran...My colleagues and I were in the Denton area on extended business. Upon waking up this morning I discovered approximately 20 bites (total) on both legs. After speaking with a friend, I was advised to look online and see if the bites resembled bed bug bites. And they did. So when I returned to the motel that morning, I spoke with the person in the office and asked that the room be checked just in case. I had to leave again, but upon my return my coworkers and I were advised that we were being kicked out of the motel!! With them insinuating that I brought them in! Really? We don't have them at home because my wife saw something on the news and took precautions over a year ago to prevent them (mattress bags, etc). And this is my first sales job that has ever taken me out of town. I hate to say it, but they did not piggy back in on me or my belongings.So I gather, that since the sheets were FINALLY changed after a week that maybe your staff transferred them in with blankets, linens, etc? I will tell you that our corporate office booked and paid for this place before we even rolled into town. Had we been made aware in the beginning that their idea of a bed is a plywood type platform with a 4 in. mattress, we would have ran the other way. We should have realized something when the motel across the street was semi full and this place looked like a ghost town (and remained as such during our stay). Maybe it was because of the flat pillows, an AC unit with an attitude and a room that really stunk.At least when you go tent-camping and are on the ground, you expect the hardness and all the critters. Not when you are PAYING an establishment  basically for modern comfort and facilities!BEWARE!!!!!!!More</t>
   </si>
   <si>
+    <t>burned25</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r83330329-WoodSpring_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -629,6 +689,9 @@
   </si>
   <si>
     <t>It is fairly clean and new in at first glance, I guess roaches are to be expected occasionally,I only saw 3 or 4 every week. Management was very unaccomadating making me wait 3 weeks to have room cleaned and linen changed after due to my misunderstanding missingthe scheduled cleaning day. If by chance you've made the mistake of paying for a week up front and encounter poor services or roaches and wish to leave early you will not be reembursed for any days remaining during the week. Be prepared to buy toliet paper take your trash to the dumpster, and heaven forbid don't go barefoot or according to the contract you will be evicted. No wireless so bring an ethernet cable and be ready to be nickled and dimed internet service is $10 a day. Overall I would say that this is the least customer friendly or accomidating hotel I have ever stayed in and it can not come close to measuring up to anyones expectations.More</t>
+  </si>
+  <si>
+    <t>Traveler123Waco</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r30112248-WoodSpring_Suites_Denton-Denton_Texas.html</t>
@@ -1154,43 +1217,47 @@
       <c r="A2" t="n">
         <v>57058</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>9071</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1202,56 +1269,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>57058</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>182562</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -1269,56 +1340,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>57058</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>8642</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
@@ -1336,56 +1411,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>57058</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>182563</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="J5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="L5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1399,50 +1478,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>57058</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>182564</v>
+      </c>
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>83</v>
       </c>
-      <c r="L6" t="s">
-        <v>84</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>79</v>
-      </c>
       <c r="O6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1456,50 +1539,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>57058</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>640</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="O7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1513,50 +1600,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>57058</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>182565</v>
+      </c>
+      <c r="C8" t="s">
+        <v>99</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="J8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="K8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="L8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="O8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -1576,50 +1667,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>57058</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>182566</v>
+      </c>
+      <c r="C9" t="s">
+        <v>107</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="J9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="K9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="L9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
@@ -1639,50 +1734,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>57058</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>182567</v>
+      </c>
+      <c r="C10" t="s">
+        <v>113</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="J10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="K10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="L10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="O10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P10" t="n">
         <v>2</v>
@@ -1700,50 +1799,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>57058</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>123109</v>
+      </c>
+      <c r="C11" t="s">
+        <v>121</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="J11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="K11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="L11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="O11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
@@ -1761,50 +1864,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>57058</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>1819</v>
+      </c>
+      <c r="C12" t="s">
+        <v>129</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="J12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="K12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="L12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="O12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="P12" t="n">
         <v>4</v>
@@ -1822,56 +1929,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="X12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="Y12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>57058</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>182568</v>
+      </c>
+      <c r="C13" t="s">
+        <v>140</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="J13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="K13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="L13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="O13" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -1895,50 +2006,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>57058</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>182569</v>
+      </c>
+      <c r="C14" t="s">
+        <v>148</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" t="s">
+        <v>150</v>
+      </c>
+      <c r="J14" t="s">
+        <v>151</v>
+      </c>
+      <c r="K14" t="s">
+        <v>152</v>
+      </c>
+      <c r="L14" t="s">
+        <v>153</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>154</v>
+      </c>
+      <c r="O14" t="s">
         <v>136</v>
-      </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" t="s">
-        <v>137</v>
-      </c>
-      <c r="J14" t="s">
-        <v>138</v>
-      </c>
-      <c r="K14" t="s">
-        <v>139</v>
-      </c>
-      <c r="L14" t="s">
-        <v>140</v>
-      </c>
-      <c r="M14" t="n">
-        <v>5</v>
-      </c>
-      <c r="N14" t="s">
-        <v>141</v>
-      </c>
-      <c r="O14" t="s">
-        <v>125</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
@@ -1962,50 +2077,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>57058</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>106745</v>
+      </c>
+      <c r="C15" t="s">
+        <v>155</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="J15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="K15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="L15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="O15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -2027,56 +2146,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="X15" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="Y15" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>57058</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>182570</v>
+      </c>
+      <c r="C16" t="s">
+        <v>165</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="J16" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="K16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="L16" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="n">
         <v>3</v>
@@ -2098,56 +2221,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="X16" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="Y16" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>57058</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>182571</v>
+      </c>
+      <c r="C17" t="s">
+        <v>175</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="J17" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="K17" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="L17" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="O17" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="P17" t="n">
         <v>1</v>
@@ -2169,56 +2296,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="X17" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="Y17" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>57058</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>182572</v>
+      </c>
+      <c r="C18" t="s">
+        <v>185</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="J18" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="K18" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="L18" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
@@ -2240,56 +2371,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="X18" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="Y18" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>57058</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>182573</v>
+      </c>
+      <c r="C19" t="s">
+        <v>195</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="J19" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="K19" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="L19" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="n">
         <v>1</v>
@@ -2313,50 +2448,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>57058</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>182574</v>
+      </c>
+      <c r="C20" t="s">
+        <v>203</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="J20" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="K20" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="L20" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="n">
         <v>1</v>
@@ -2380,50 +2519,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>57058</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>182575</v>
+      </c>
+      <c r="C21" t="s">
+        <v>211</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="J21" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="K21" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="L21" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="n">
         <v>2</v>
@@ -2447,50 +2590,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>57058</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>182576</v>
+      </c>
+      <c r="C22" t="s">
+        <v>219</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="J22" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="K22" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="L22" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -2512,13 +2659,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="X22" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="Y22" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_781.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_781.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="307">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,78 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Lisa B</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/29/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r533266344-WoodSpring_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>55732</t>
+  </si>
+  <si>
+    <t>911617</t>
+  </si>
+  <si>
+    <t>533266344</t>
+  </si>
+  <si>
+    <t>10/15/2017</t>
+  </si>
+  <si>
+    <t>DON'T STAY HERE!!</t>
+  </si>
+  <si>
+    <t>Very unhappy here! They have a kitchenette, but no pots or pans, no dishes or silverware of any kind, no coffee maker, nothing whatsoever in the kitchenette. No shampoo or soap, no kleenex, no blow dryer (Motel 6 even has blow Dryers!). The air conditioner must have a limiter, because it would not cool below roasting no matter what the setting. The hotel has no ice maker, no housekeeping, and we had to ask to obtain enough towels for everyone in our room. When we told the front desk that the dust ruffles on both beds were stained (and how on earth do you stain a dust ruffle?), they replied "oh, that doesn't surprise me. I am sure it has already been reported and nothing was done, but I will write it down." This is not a hotel that caters to short term stays.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>sjames280, Manager at WoodSpring Suites Denton, responded to this reviewResponded October 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 17, 2017</t>
+  </si>
+  <si>
+    <t>Very unhappy here! They have a kitchenette, but no pots or pans, no dishes or silverware of any kind, no coffee maker, nothing whatsoever in the kitchenette. No shampoo or soap, no kleenex, no blow dryer (Motel 6 even has blow Dryers!). The air conditioner must have a limiter, because it would not cool below roasting no matter what the setting. The hotel has no ice maker, no housekeeping, and we had to ask to obtain enough towels for everyone in our room. When we told the front desk that the dust ruffles on both beds were stained (and how on earth do you stain a dust ruffle?), they replied "oh, that doesn't surprise me. I am sure it has already been reported and nothing was done, but I will write it down." This is not a hotel that caters to short term stays.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r497128256-WoodSpring_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>497128256</t>
+  </si>
+  <si>
+    <t>06/29/2017</t>
+  </si>
+  <si>
+    <t>Horrible Stay</t>
+  </si>
+  <si>
+    <t>OMG! Where should I began.....First of all, no ice machine, no lamps in the rooms, roaches and more roaches. Ice trays were dirty in freezer. Sheets were dirty and smelly! RUNNN DONT WALK RUNNN. Worse stay ever!!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>sjames280, Manager at WoodSpring Suites Denton, responded to this reviewResponded June 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 30, 2017</t>
+  </si>
+  <si>
+    <t>OMG! Where should I began.....First of all, no ice machine, no lamps in the rooms, roaches and more roaches. Ice trays were dirty in freezer. Sheets were dirty and smelly! RUNNN DONT WALK RUNNN. Worse stay ever!!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r445122162-WoodSpring_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
-    <t>55732</t>
-  </si>
-  <si>
-    <t>911617</t>
-  </si>
-  <si>
     <t>445122162</t>
   </si>
   <si>
@@ -180,9 +237,6 @@
     <t>December 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Stephen S, Manager at WoodSpring Suites Denton, responded to this reviewResponded December 30, 2016</t>
   </si>
   <si>
@@ -192,9 +246,6 @@
     <t>Stayed several weeks here on a business trip and I was very impressed with the friendliness and hospitality shown by Sammy and Scott. My minor concerns were addressed promptly and your warm smiles were greatly apreciated.More</t>
   </si>
   <si>
-    <t>793jacobi</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r444100083-WoodSpring_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -213,15 +264,9 @@
     <t>November 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Managment is rude and does not address any problems. Our room was dirty, Scott at the front desk was extremley rude and rolled his eyes at me when I complained to him, and I heard him complain about me to the other girl working the desk as I walked away.More</t>
   </si>
   <si>
-    <t>Vicki S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r426488937-WoodSpring_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -249,7 +294,57 @@
     <t>Everywhere else in the area was sold out, so I took the chance. Bad idea. First, let me say that there is no refund for checking out early, and it was bad enough that we left anyway. So I'm paying tonight for that room and a nice clean one at Hampton Inn.Although the pictures are true, they don't let you smell the smoke and stink that is in the motel.  The bathroom sink still had hair on it still.  The beds had clean sheets, but the pillows and bedspread were still off the beds, THANK HEAVENS, cuz the bedspreads  were DISGUSTING brown and nasty.  We went to Walmart and bought cheap blankets to sleep under.  The beds are nothing more than a hard mattress on a large cot.We checked in very early, or I'm afraid what we would have gotten.  And thing is, I paid only $20 more dollars here at this way way nicer hotel. If only they would have had rooms available for last night!More</t>
   </si>
   <si>
-    <t>Linden  B</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r397703470-WoodSpring_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>397703470</t>
+  </si>
+  <si>
+    <t>07/26/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great place to stay </t>
+  </si>
+  <si>
+    <t>We recently stayed at the Denton Value Place. I would highly recommend this hotel to anyone looking for a place to stay. The staff were friendly and knowledgeable. We felt completely safe at the property. We will definitely stay at this property again. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Stephen S, District Manager at WoodSpring Suites Denton, responded to this reviewResponded July 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 30, 2016</t>
+  </si>
+  <si>
+    <t>We recently stayed at the Denton Value Place. I would highly recommend this hotel to anyone looking for a place to stay. The staff were friendly and knowledgeable. We felt completely safe at the property. We will definitely stay at this property again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r366756044-WoodSpring_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>366756044</t>
+  </si>
+  <si>
+    <t>04/23/2016</t>
+  </si>
+  <si>
+    <t>Caveat Emptor ...</t>
+  </si>
+  <si>
+    <t>I booked a room at Value Place because, amazingly, I had already been turned away from another hotel where I had a reservation (this was blamed on an online glitch of some sort). It only gets more astounding from here: upon walking into Value Place's "lobby" (a narrow, dystopian passageway with a locked door at one end and a tiny porthole half covered by a metal grate -- more reminiscent of county lockup than a hotel) at a bit past 9pm, it was immediately clear that something was amiss. Two other groups were stalled with their luggage and the front desk attendant was on the phone talking about still-occupied rooms, rooms that had not been cleaned, etc. Eventually, it became clear that nobody's reservation was going to be honored; rooms that "showed up vacant in the system" were, in fact, still occupied, and indeed, the hotel was 100% booked for the night. I don't know what this elusive "system" is on which this was blamed, but it is shockingly bad business to overbook a hotel so blatantly and keep on confirming reservations with wanton abandon. Lodger, beware: Value Place might claim vacancy, but you simply won't know until you get there.
+The good news is that the young woman behind the desk was friendly and apologetic, and offered to help book alternate rooms for anyone who needed them. I believe she was a bit embarrassed by the whole thing and...I booked a room at Value Place because, amazingly, I had already been turned away from another hotel where I had a reservation (this was blamed on an online glitch of some sort). It only gets more astounding from here: upon walking into Value Place's "lobby" (a narrow, dystopian passageway with a locked door at one end and a tiny porthole half covered by a metal grate -- more reminiscent of county lockup than a hotel) at a bit past 9pm, it was immediately clear that something was amiss. Two other groups were stalled with their luggage and the front desk attendant was on the phone talking about still-occupied rooms, rooms that had not been cleaned, etc. Eventually, it became clear that nobody's reservation was going to be honored; rooms that "showed up vacant in the system" were, in fact, still occupied, and indeed, the hotel was 100% booked for the night. I don't know what this elusive "system" is on which this was blamed, but it is shockingly bad business to overbook a hotel so blatantly and keep on confirming reservations with wanton abandon. Lodger, beware: Value Place might claim vacancy, but you simply won't know until you get there.The good news is that the young woman behind the desk was friendly and apologetic, and offered to help book alternate rooms for anyone who needed them. I believe she was a bit embarrassed by the whole thing and did all she could. Nevertheless, if you need somewhere to stay in the blighted hellscape of construction and noise that is the I-35 corridor north of Dallas, try to steer clear of this nonsense.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>I booked a room at Value Place because, amazingly, I had already been turned away from another hotel where I had a reservation (this was blamed on an online glitch of some sort). It only gets more astounding from here: upon walking into Value Place's "lobby" (a narrow, dystopian passageway with a locked door at one end and a tiny porthole half covered by a metal grate -- more reminiscent of county lockup than a hotel) at a bit past 9pm, it was immediately clear that something was amiss. Two other groups were stalled with their luggage and the front desk attendant was on the phone talking about still-occupied rooms, rooms that had not been cleaned, etc. Eventually, it became clear that nobody's reservation was going to be honored; rooms that "showed up vacant in the system" were, in fact, still occupied, and indeed, the hotel was 100% booked for the night. I don't know what this elusive "system" is on which this was blamed, but it is shockingly bad business to overbook a hotel so blatantly and keep on confirming reservations with wanton abandon. Lodger, beware: Value Place might claim vacancy, but you simply won't know until you get there.
+The good news is that the young woman behind the desk was friendly and apologetic, and offered to help book alternate rooms for anyone who needed them. I believe she was a bit embarrassed by the whole thing and...I booked a room at Value Place because, amazingly, I had already been turned away from another hotel where I had a reservation (this was blamed on an online glitch of some sort). It only gets more astounding from here: upon walking into Value Place's "lobby" (a narrow, dystopian passageway with a locked door at one end and a tiny porthole half covered by a metal grate -- more reminiscent of county lockup than a hotel) at a bit past 9pm, it was immediately clear that something was amiss. Two other groups were stalled with their luggage and the front desk attendant was on the phone talking about still-occupied rooms, rooms that had not been cleaned, etc. Eventually, it became clear that nobody's reservation was going to be honored; rooms that "showed up vacant in the system" were, in fact, still occupied, and indeed, the hotel was 100% booked for the night. I don't know what this elusive "system" is on which this was blamed, but it is shockingly bad business to overbook a hotel so blatantly and keep on confirming reservations with wanton abandon. Lodger, beware: Value Place might claim vacancy, but you simply won't know until you get there.The good news is that the young woman behind the desk was friendly and apologetic, and offered to help book alternate rooms for anyone who needed them. I believe she was a bit embarrassed by the whole thing and did all she could. Nevertheless, if you need somewhere to stay in the blighted hellscape of construction and noise that is the I-35 corridor north of Dallas, try to steer clear of this nonsense.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r359118037-WoodSpring_Suites_Denton-Denton_Texas.html</t>
@@ -270,9 +365,6 @@
     <t>February 2016</t>
   </si>
   <si>
-    <t>aschrouf91</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r347965577-WoodSpring_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -288,12 +380,6 @@
     <t>Michelle ( manager) is a very respectful, helpful, and overall great member of the value place staff. Brandy, candy, jasmine make a wonderful team and will make sure you're perfectly accommodated even if its the smallest request. I highly recommend value place in Denton,TX. I had a great experience myself and will return if I ever need a hotel for any reason.      .             A. Schrouf</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>Ashley L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r345461813-WoodSpring_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -315,7 +401,46 @@
     <t>We stayed at The Value Place from August 2015-February 6th. I would not recommend this place to anyone! The police were always there for something, the staff needs classes on how to treat others and that its probably not a good idea to steal from a credit card that's not yours? We were asked to leave due to late payments when I made a verbal agreement with the manager that Friday's were okay? We had a lot of stuff in there and I was given 3 hours to leave. I was treated in humanely. The one and ONLY employee that genuinely cares is Candy! She always made sure we were taken care of and she is always working. More</t>
   </si>
   <si>
-    <t>Liyana T</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r333897565-WoodSpring_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>333897565</t>
+  </si>
+  <si>
+    <t>12/19/2015</t>
+  </si>
+  <si>
+    <t>Excellent Place to stay!!!!</t>
+  </si>
+  <si>
+    <t>great staff front desk clerk was great and the house keepers did an awesome job cleaning the room.... Kandi the front desk clerk was very nice and professional at check in. The housekeepers did an excellent job with cleaning my room and having it ready to move in. This is the best cheap hotel anyone could stay in and I will be recommending everyone I know including my social media friends and family to come stay at Denton, TX Value Place hotel!!!!</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r311932752-WoodSpring_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>311932752</t>
+  </si>
+  <si>
+    <t>09/19/2015</t>
+  </si>
+  <si>
+    <t>Customer Service is Non-Existant</t>
+  </si>
+  <si>
+    <t>We needed a place to stay a few weeks after selling our house before we moved into our next one.  We reserved a room online, but when we arrived no one was at the front desk, even though their office hours sign said they were open.  When calling on their service phone, no one answered.  This was the case during our entire stay. The rate seems cheap, however, they don't provide much. The room includes a kitchenette but no dishes, pots/pans, silverware, glasses, or kitchen towels. They provide 2 bath towels, 2 washcloths, and a bathmat.  If you want hand towels or kitchen accessories, soap, shampoo, etch. you have to pay weekly to rent them.  You also have to pay for internet use.  They say they clean every other week, but they didn't clean on the date they said we were scheduled for.  If you want your room cleaned, it's another charge.  We extended our stay another week, but we got locked out of our room (and the lobby) until someone showed up to reset our keys.  We ended up not staying this next full week, because other patrons started approaching us asking for money, and we couldn't take the poor service any longer.  We weren't able to get credit for early checkout.  Even when we were checking out, no one was at the front desk, when I called on their service phone, I noticed an employee past the locked...We needed a place to stay a few weeks after selling our house before we moved into our next one.  We reserved a room online, but when we arrived no one was at the front desk, even though their office hours sign said they were open.  When calling on their service phone, no one answered.  This was the case during our entire stay. The rate seems cheap, however, they don't provide much. The room includes a kitchenette but no dishes, pots/pans, silverware, glasses, or kitchen towels. They provide 2 bath towels, 2 washcloths, and a bathmat.  If you want hand towels or kitchen accessories, soap, shampoo, etch. you have to pay weekly to rent them.  You also have to pay for internet use.  They say they clean every other week, but they didn't clean on the date they said we were scheduled for.  If you want your room cleaned, it's another charge.  We extended our stay another week, but we got locked out of our room (and the lobby) until someone showed up to reset our keys.  We ended up not staying this next full week, because other patrons started approaching us asking for money, and we couldn't take the poor service any longer.  We weren't able to get credit for early checkout.  Even when we were checking out, no one was at the front desk, when I called on their service phone, I noticed an employee past the locked lobby door open and peek in from the back door. She wouldn't come to the front desk, and when I said I needed to check out, she said "just leave your keys on the desk".  We weren't able to get a receipt or statement.  We ended up moving to Homewood Suites, which was double the price, but very well worth it.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>We needed a place to stay a few weeks after selling our house before we moved into our next one.  We reserved a room online, but when we arrived no one was at the front desk, even though their office hours sign said they were open.  When calling on their service phone, no one answered.  This was the case during our entire stay. The rate seems cheap, however, they don't provide much. The room includes a kitchenette but no dishes, pots/pans, silverware, glasses, or kitchen towels. They provide 2 bath towels, 2 washcloths, and a bathmat.  If you want hand towels or kitchen accessories, soap, shampoo, etch. you have to pay weekly to rent them.  You also have to pay for internet use.  They say they clean every other week, but they didn't clean on the date they said we were scheduled for.  If you want your room cleaned, it's another charge.  We extended our stay another week, but we got locked out of our room (and the lobby) until someone showed up to reset our keys.  We ended up not staying this next full week, because other patrons started approaching us asking for money, and we couldn't take the poor service any longer.  We weren't able to get credit for early checkout.  Even when we were checking out, no one was at the front desk, when I called on their service phone, I noticed an employee past the locked...We needed a place to stay a few weeks after selling our house before we moved into our next one.  We reserved a room online, but when we arrived no one was at the front desk, even though their office hours sign said they were open.  When calling on their service phone, no one answered.  This was the case during our entire stay. The rate seems cheap, however, they don't provide much. The room includes a kitchenette but no dishes, pots/pans, silverware, glasses, or kitchen towels. They provide 2 bath towels, 2 washcloths, and a bathmat.  If you want hand towels or kitchen accessories, soap, shampoo, etch. you have to pay weekly to rent them.  You also have to pay for internet use.  They say they clean every other week, but they didn't clean on the date they said we were scheduled for.  If you want your room cleaned, it's another charge.  We extended our stay another week, but we got locked out of our room (and the lobby) until someone showed up to reset our keys.  We ended up not staying this next full week, because other patrons started approaching us asking for money, and we couldn't take the poor service any longer.  We weren't able to get credit for early checkout.  Even when we were checking out, no one was at the front desk, when I called on their service phone, I noticed an employee past the locked lobby door open and peek in from the back door. She wouldn't come to the front desk, and when I said I needed to check out, she said "just leave your keys on the desk".  We weren't able to get a receipt or statement.  We ended up moving to Homewood Suites, which was double the price, but very well worth it.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r309097870-WoodSpring_Suites_Denton-Denton_Texas.html</t>
@@ -339,9 +464,6 @@
     <t>Awesome stay at this Value Place!  I made a trip to Texas recently to visit some family and get away from Illinois for a bit.  I was slightly skeptical about staying at a Value Place since I am not familiar with this brand at all.  I am a stickler for cleanliness when I stay at hotels and when I checked into my room it was so clean.  I was surprised because when I stay at typical hotels I always find at least one thing that is icky.  I can't begin to explain what a pleasure it was dealing with everyone at this location.  They were all so personable and friendly, greeted me with warm smiles and always a "how are you today?".  Brandy was always so warm and delightful, and the Manager was always such a pleasure to converse with.  I didn't get the pleasure of interacting with everyone at this hotel but the ones I did come in contact with always made me feel so warm and comfortable, like I was an extension of their family.  The maintenance man Carlos was such a sweet fellow, he fixed my kitchen light straight away when the light bulb blew out.  I just cannot say enough about this location, the staff and the rooms!  Like I said the only place better would be home!More</t>
   </si>
   <si>
-    <t>RoyRV</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r306488175-WoodSpring_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -355,9 +477,6 @@
   </si>
   <si>
     <t>Everyone here has been super fantastic.  All of the ladies working here have been so helpful and accommodating. Upon making my reservation I requested an end room on the first floor and they had no issues accommodating my requests.  I particularly like the fact that almost everyone knows my name. I have really enjoyed my stay at this Value Place.  If you are looking for a place to stay on a budget with excellent customer service this is the place to go!</t>
-  </si>
-  <si>
-    <t>paulslevy</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r288504694-WoodSpring_Suites_Denton-Denton_Texas.html</t>
@@ -389,7 +508,43 @@
 I've already called...My wife and daughter walked out of this place after only 1 night. The front desk manager was rude and belligerent. The 1st night was spent on the Smoking Room. My wife asked to be put into a Non-Smoking floor room, and the front desk manager told her, "I've got other guests coming in and I need to tend to them."Half an hour later the front desk told my wife that they got her a Non-Smoking room on the 1st floor. My wife went into the room and found trash in there (like the room hadn't been properly cleaned) and a urine stain on the mattress. She went back to the front desk and asked the clerk to go with her to see what she was experiencing, and the manager told the clerk, "You're not going anywhere with her."So my wife and daughter packed up and had to go find another place to stay.I called the hotel and got a very rude individual who told me that I'd not be refunded for the rest of the week's stay nights. When I tried to explain the situation to him he said, "That has nothing to do with us. I've already explained the cancelation policy to you and you don't understand it." I tried to tell him that I just wanted to explain to him what was going on, but he refused to hear me out.I've already called their corporate offices and lodged a complaint AND my daughter videotaped the room they were staying in just in case management at the hotel tries to claim that my family did something to the room.It was a terrible experience for them, and absolutely unacceptable customer service by the front desk. Value Place needs to revamp the staff there and terminate the individuals who made my family's one night stay there so unpleasant.Not only will we never consider staying there-No one else should.And I am launching a formal complaint with the corporate offices.More</t>
   </si>
   <si>
-    <t>MelindaLongoria</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r284548354-WoodSpring_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>284548354</t>
+  </si>
+  <si>
+    <t>06/30/2015</t>
+  </si>
+  <si>
+    <t>Thieves</t>
+  </si>
+  <si>
+    <t>Stayed there 6 months. Then I lost my job and were making plans to move. When we got back late on a Saturday night (7:30) out key card didn't work. Went down to pay the room and get our key card. Maint. Man was at the desk. He told my wife we had to leave cause the room wasn't paid for. My wife said she had the money he told her it didn't matter and came up with my with and told us that we couldn't take anything in ( purse food nothing) we needed to get our puppy his food and that we could get our stuff later. He opened the door I took the puppy out and he let my wife get her meds, but while I was outside and she was in the room he took the money out of her purse . then when I came back up expecting to get what we had in our hands and leave, he said y'all stay and we could figure it out the next day. Well the next morning my wife went to get the money out of her purse and then notices it gone.. ALL of it. Long start short. We were broke and now had no money for anything. If you stay there watch out. He's a thief! Finally managed to borrow some to have a place to stay until we can fund a way home. Police...Stayed there 6 months. Then I lost my job and were making plans to move. When we got back late on a Saturday night (7:30) out key card didn't work. Went down to pay the room and get our key card. Maint. Man was at the desk. He told my wife we had to leave cause the room wasn't paid for. My wife said she had the money he told her it didn't matter and came up with my with and told us that we couldn't take anything in ( purse food nothing) we needed to get our puppy his food and that we could get our stuff later. He opened the door I took the puppy out and he let my wife get her meds, but while I was outside and she was in the room he took the money out of her purse . then when I came back up expecting to get what we had in our hands and leave, he said y'all stay and we could figure it out the next day. Well the next morning my wife went to get the money out of her purse and then notices it gone.. ALL of it. Long start short. We were broke and now had no money for anything. If you stay there watch out. He's a thief! Finally managed to borrow some to have a place to stay until we can fund a way home. Police notified but doubt I'll get the money back. And I'm thinking if filing.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Stayed there 6 months. Then I lost my job and were making plans to move. When we got back late on a Saturday night (7:30) out key card didn't work. Went down to pay the room and get our key card. Maint. Man was at the desk. He told my wife we had to leave cause the room wasn't paid for. My wife said she had the money he told her it didn't matter and came up with my with and told us that we couldn't take anything in ( purse food nothing) we needed to get our puppy his food and that we could get our stuff later. He opened the door I took the puppy out and he let my wife get her meds, but while I was outside and she was in the room he took the money out of her purse . then when I came back up expecting to get what we had in our hands and leave, he said y'all stay and we could figure it out the next day. Well the next morning my wife went to get the money out of her purse and then notices it gone.. ALL of it. Long start short. We were broke and now had no money for anything. If you stay there watch out. He's a thief! Finally managed to borrow some to have a place to stay until we can fund a way home. Police...Stayed there 6 months. Then I lost my job and were making plans to move. When we got back late on a Saturday night (7:30) out key card didn't work. Went down to pay the room and get our key card. Maint. Man was at the desk. He told my wife we had to leave cause the room wasn't paid for. My wife said she had the money he told her it didn't matter and came up with my with and told us that we couldn't take anything in ( purse food nothing) we needed to get our puppy his food and that we could get our stuff later. He opened the door I took the puppy out and he let my wife get her meds, but while I was outside and she was in the room he took the money out of her purse . then when I came back up expecting to get what we had in our hands and leave, he said y'all stay and we could figure it out the next day. Well the next morning my wife went to get the money out of her purse and then notices it gone.. ALL of it. Long start short. We were broke and now had no money for anything. If you stay there watch out. He's a thief! Finally managed to borrow some to have a place to stay until we can fund a way home. Police notified but doubt I'll get the money back. And I'm thinking if filing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r273079762-WoodSpring_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>273079762</t>
+  </si>
+  <si>
+    <t>05/19/2015</t>
+  </si>
+  <si>
+    <t>Good Luck</t>
+  </si>
+  <si>
+    <t>Booked a room for double occupancy and was given a tiny full bed. I have a picture with my "normal" sized pillow and it takes up 3/4s of the bed width.  There is NO WAY 2 people can sleep in a tiny bed.  When I complained, I was told... two people can sleep in that bed.My family had to run a background check to ensure we aren't sexual predators JUST to stay there one night. Tells you what kind of people they expect to stay at their hotel. WOW.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r261804553-WoodSpring_Suites_Denton-Denton_Texas.html</t>
@@ -413,9 +568,6 @@
     <t>My family won this hotel through priceline. I was shocked this place was listed on priceline. It's an extended stay and not really a place that you'd expect priceline to offer. When we arrived there was no one at the front desk to greet us. The front desk had a white slider that was closed. There is a phone across the hall on the wall and a sign stating that you can call for help. A lady approached me from inside the building and asked if I needed any help. She was on her way to the office. She checked me in. I requested two beds but they only had a room available with one "full size" bed. It was tiny. Wow, I didn't really know that hotels still used full size beds in their rooms. I had to make my kids a bed on the floor. There was no pull-out couch as it was advertised on their website. There was a small basic kitchen but not pots, pans, water pitures, coffee maker, or silverware as you would expect with a kitchenette. I had to purchase a soda in the hallway for my morning caffeine. They provide you with a basic bar of soap so make sure that you bring any toiletries (shampoo, conditioner, lotion). Also, pack your blow dryer and iron because obviously those aren't available either. There were people standing outside all the time smoking right in the...My family won this hotel through priceline. I was shocked this place was listed on priceline. It's an extended stay and not really a place that you'd expect priceline to offer. When we arrived there was no one at the front desk to greet us. The front desk had a white slider that was closed. There is a phone across the hall on the wall and a sign stating that you can call for help. A lady approached me from inside the building and asked if I needed any help. She was on her way to the office. She checked me in. I requested two beds but they only had a room available with one "full size" bed. It was tiny. Wow, I didn't really know that hotels still used full size beds in their rooms. I had to make my kids a bed on the floor. There was no pull-out couch as it was advertised on their website. There was a small basic kitchen but not pots, pans, water pitures, coffee maker, or silverware as you would expect with a kitchenette. I had to purchase a soda in the hallway for my morning caffeine. They provide you with a basic bar of soap so make sure that you bring any toiletries (shampoo, conditioner, lotion). Also, pack your blow dryer and iron because obviously those aren't available either. There were people standing outside all the time smoking right in the entrance. I really feel that we would have had a better stay at a Motel 6 and was so disappointed with this experience. I hope we never get booked at this place again. I do not recommend this place unless you really need it for an extended stay.More</t>
   </si>
   <si>
-    <t>John T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r255137810-WoodSpring_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -434,9 +586,6 @@
     <t>February 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>Sean A, Owner at WoodSpring Suites Denton, responded to this reviewResponded February 25, 2015</t>
   </si>
   <si>
@@ -446,9 +595,6 @@
     <t>This is my second time to stay here. I will be here a week while I am apartment hunting. The people here are friendly especially Diane. The rent is only 239/week with about 35 tax.You get a big room with fridge(full sized) and two burner oven...and sink...nice bathroom, nice wide screen television. The best place to stay in the North Dallas area if you are in transition. It is near DFW airport...about 22 miles.More</t>
   </si>
   <si>
-    <t>Mazaranne</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r194907198-WoodSpring_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -470,7 +616,45 @@
     <t>I thought I'd write another review of Value Place Properties seeing as how I am approaching the fourth anniversary of my moving in.  The staff and cost continue to be a big plus.  I've stopped thinking about moving elsewhere and have been informed that I am welcome to stay as long as I like. The staff, new and old, continue to be helpful and courteous. The property is still very well maintained and clean and safe. I recently had car trouble and the manager was nice enough to pick me up at the garage.  I don't have the money to tip the way I'd like to, but try to do little things for the staff usually taking the form of a pizza for the staff members. I truly believe I am able to put off moving to an assisted living facility by being able to reside here at Value Place Properties.  I'm very lucky to have found this place.More</t>
   </si>
   <si>
-    <t>kevin o</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r194617525-WoodSpring_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>194617525</t>
+  </si>
+  <si>
+    <t>02/19/2014</t>
+  </si>
+  <si>
+    <t>FIVE STARS</t>
+  </si>
+  <si>
+    <t>If your looking for a clean' comfortable safe place to stay then look no further. Denton Value place is it.Well maintained building rooms and property.I have stayed at other Value Places staff and Management here are always FRIENDLY AND HELPFUL.Oh yes almost forgot nice new TV'S and Pillow top Mattresses. Enjoy your stay.DAY SLEEPER</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r167254999-WoodSpring_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>167254999</t>
+  </si>
+  <si>
+    <t>07/12/2013</t>
+  </si>
+  <si>
+    <t>An alternative to assisted living for me</t>
+  </si>
+  <si>
+    <t>I'm not a traveler, but I've found that this Value Place property is ideal for my situation.  I have Parkinson's and even though I do require SOME assistance, I am not yet ready for the expense and atmosphere of an assisted-living facility.  I had originally moved to this hotel with the intention of staying just a very few months till I could find an apartment to suit my needs, but the staff and excellent handicapped facilities have turned temporary into over three years now.  I want to rave a bit about the staff at this time.  There is quite a bit of peripheral staff turn-over, but there are also those staff persons who have been here during my entire stay who have been nothing but helpful and courteous and who go out of their way to make my life easier. No, there isn't daily maid service, but it would be ridiculous to expect similar daily maid service to that which is provided in a non-extended stay hotel.  I do witness that even the bedspreads are washed on a regular and often schedule.  Yes, long-term residents do their own laundry, but there is an on-site laundry room which is kept immaculate. Staff changes room linens every other week, but long-term residents can change linens themselves more often for a nominal laundering fee. 
+  As a long-term resident, I have settled in quite nicely.  I have my own television, computer, some small pieces...I'm not a traveler, but I've found that this Value Place property is ideal for my situation.  I have Parkinson's and even though I do require SOME assistance, I am not yet ready for the expense and atmosphere of an assisted-living facility.  I had originally moved to this hotel with the intention of staying just a very few months till I could find an apartment to suit my needs, but the staff and excellent handicapped facilities have turned temporary into over three years now.  I want to rave a bit about the staff at this time.  There is quite a bit of peripheral staff turn-over, but there are also those staff persons who have been here during my entire stay who have been nothing but helpful and courteous and who go out of their way to make my life easier. No, there isn't daily maid service, but it would be ridiculous to expect similar daily maid service to that which is provided in a non-extended stay hotel.  I do witness that even the bedspreads are washed on a regular and often schedule.  Yes, long-term residents do their own laundry, but there is an on-site laundry room which is kept immaculate. Staff changes room linens every other week, but long-term residents can change linens themselves more often for a nominal laundering fee.   As a long-term resident, I have settled in quite nicely.  I have my own television, computer, some small pieces of furniture and other items to make me feel like this is home. I give just about entire credit to the staff and this hotel for helping me maintain my independence for this long.  I'm not sure where I would  have landed after losing my house and job due to my condition, but Value Place and its staff have made my landing a soft, safe and sensible choice and I plan on being here as long as I am able.  Which, with the kind of service and personal help the staff provides, should be a long and enjoyable stay.  As far as I am concerned, any negative experiences anyone has had at this facility is highly likely to have been the result of their own behavior and/or actions.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>I'm not a traveler, but I've found that this Value Place property is ideal for my situation.  I have Parkinson's and even though I do require SOME assistance, I am not yet ready for the expense and atmosphere of an assisted-living facility.  I had originally moved to this hotel with the intention of staying just a very few months till I could find an apartment to suit my needs, but the staff and excellent handicapped facilities have turned temporary into over three years now.  I want to rave a bit about the staff at this time.  There is quite a bit of peripheral staff turn-over, but there are also those staff persons who have been here during my entire stay who have been nothing but helpful and courteous and who go out of their way to make my life easier. No, there isn't daily maid service, but it would be ridiculous to expect similar daily maid service to that which is provided in a non-extended stay hotel.  I do witness that even the bedspreads are washed on a regular and often schedule.  Yes, long-term residents do their own laundry, but there is an on-site laundry room which is kept immaculate. Staff changes room linens every other week, but long-term residents can change linens themselves more often for a nominal laundering fee. 
+  As a long-term resident, I have settled in quite nicely.  I have my own television, computer, some small pieces...I'm not a traveler, but I've found that this Value Place property is ideal for my situation.  I have Parkinson's and even though I do require SOME assistance, I am not yet ready for the expense and atmosphere of an assisted-living facility.  I had originally moved to this hotel with the intention of staying just a very few months till I could find an apartment to suit my needs, but the staff and excellent handicapped facilities have turned temporary into over three years now.  I want to rave a bit about the staff at this time.  There is quite a bit of peripheral staff turn-over, but there are also those staff persons who have been here during my entire stay who have been nothing but helpful and courteous and who go out of their way to make my life easier. No, there isn't daily maid service, but it would be ridiculous to expect similar daily maid service to that which is provided in a non-extended stay hotel.  I do witness that even the bedspreads are washed on a regular and often schedule.  Yes, long-term residents do their own laundry, but there is an on-site laundry room which is kept immaculate. Staff changes room linens every other week, but long-term residents can change linens themselves more often for a nominal laundering fee.   As a long-term resident, I have settled in quite nicely.  I have my own television, computer, some small pieces of furniture and other items to make me feel like this is home. I give just about entire credit to the staff and this hotel for helping me maintain my independence for this long.  I'm not sure where I would  have landed after losing my house and job due to my condition, but Value Place and its staff have made my landing a soft, safe and sensible choice and I plan on being here as long as I am able.  Which, with the kind of service and personal help the staff provides, should be a long and enjoyable stay.  As far as I am concerned, any negative experiences anyone has had at this facility is highly likely to have been the result of their own behavior and/or actions.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r167068374-WoodSpring_Suites_Denton-Denton_Texas.html</t>
@@ -491,9 +675,6 @@
     <t>July 2013</t>
   </si>
   <si>
-    <t>Lane D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r161454913-WoodSpring_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -521,9 +702,6 @@
     <t>The poor reviews obviously come from people that have no appreciation for a great place with a great price. As most know, some people live to complain and would not be happy no matter what the circumstances . There are very hard working employees at this property, that are faced with a public that expects every demand they ask for to be granted, and that is not possible while giving a great price. Despite the prior comments, and the fact I have been all over the world, this is exactly as advertised and is a great place!!!!!More</t>
   </si>
   <si>
-    <t>Ilovetogoawandering</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r160398067-WoodSpring_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -551,7 +729,49 @@
     <t>The price is lower than other quality rated hotels because they have so many rooms to lease or rent, and if you stay longer than 30 days in Texas, you won't have to pay the taxes. It is hard to get to when you exit off I-35.  I try to stay at Value Place to save money, but I have to clean my own room and do my own laundry because they will only clean your room 1x every other week and you will pay extra for the laundry service. There is a full-size fridge, microwave, and a two burner stove top in every room. The walls are paper thin, so you can hear the people next door making whoopee or hear the elephants(heavy/loud walkers) walking above you. You also have to pay a deposit when you check in and if you want it back, you have to be sure everything is clean when you leave. You also have to give them notice(a couple of days) before you leave or you will get penalized (financially). The staff there is rather lazy, as the other reports have said. I also bring my own mattress topper cause the beds are as hard as boards.More</t>
   </si>
   <si>
-    <t>Tank S</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r153965946-WoodSpring_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>153965946</t>
+  </si>
+  <si>
+    <t>03/07/2013</t>
+  </si>
+  <si>
+    <t>Great room for a great price!</t>
+  </si>
+  <si>
+    <t>My room was clean and comfortable.  I wish the internet was wireless.  The staff was awesome!  I had a litle bit of a hard time getting to the hotel but that was my problem not their.My room was clean and comfortable.  I wish the internet was wireless.  The staff was awesome!  I had a litle bit of a hard time getting to the hotel but that was my problem not their.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>My room was clean and comfortable.  I wish the internet was wireless.  The staff was awesome!  I had a litle bit of a hard time getting to the hotel but that was my problem not their.My room was clean and comfortable.  I wish the internet was wireless.  The staff was awesome!  I had a litle bit of a hard time getting to the hotel but that was my problem not their.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r138940565-WoodSpring_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>138940565</t>
+  </si>
+  <si>
+    <t>08/30/2012</t>
+  </si>
+  <si>
+    <t>Horrible service</t>
+  </si>
+  <si>
+    <t>The staff is extremely lazy and rude! I paid extra for laundry service, but every time I asked for clean towels or sheets, the staff rolled their eyes and acted inconvenienced. None of them (except for the manager) had a customer-service attitude. I stayed for four weeks, and cleaned the room myself. During that time, housecleaning stopped by only once to drop off towels and did not offer to clean anything. Cindy was spot on with her assessment of the paper-thin walls (creepily so), stinky halls, and slamming doors.MoreShow less</t>
+  </si>
+  <si>
+    <t>VPRay175, Area Manager at WoodSpring Suites Denton, responded to this reviewResponded July 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 8, 2013</t>
+  </si>
+  <si>
+    <t>The staff is extremely lazy and rude! I paid extra for laundry service, but every time I asked for clean towels or sheets, the staff rolled their eyes and acted inconvenienced. None of them (except for the manager) had a customer-service attitude. I stayed for four weeks, and cleaned the room myself. During that time, housecleaning stopped by only once to drop off towels and did not offer to clean anything. Cindy was spot on with her assessment of the paper-thin walls (creepily so), stinky halls, and slamming doors.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r124498926-WoodSpring_Suites_Denton-Denton_Texas.html</t>
@@ -581,9 +801,6 @@
     <t>BED BUGS, OVER PRICED FOR QUALITY, RUDE EMPLOYEES. . . . The most awful place away from home.  Save yourself sometime and head down the road a little bit and stay comfortably somewheres elseENOUGH SAIDMore</t>
   </si>
   <si>
-    <t>jmckib</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r121814284-WoodSpring_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -611,9 +828,6 @@
     <t>I stayed at this hotel for 2 weeks in October.  It was clean, safe and comfortable.  It's no frills but met all my needs.  The staff was friendly and helpful and the place was kept very clean and tidy.It was just off I-35 and within walking distance to a number or casual restaurants.More</t>
   </si>
   <si>
-    <t>CIndy F</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r120755531-WoodSpring_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -635,7 +849,46 @@
     <t>I have stayed in several other 'extended stay' hotels in the past for both business and pleasure, and thought I knew what to expect. Knowing I would arrive in Denton late at night, I called ahead to make sure there would be a room and someone to greet me. I was assured there would be someone here. When I entered the building at midnight, I saw a phone on the wall with instructions to pick it up and dial a number for help. The line was answered by a young man who tried his best to get me to go away since I did not have a 'reservation'. He begrudgingly agreed to come down to the front to check me in. He gave me no introduction to the place except to hand me one of their brochures, yet he did a great job getting all my deposits and rent money. I am happy to report he is no longer with this location. There are so many things I'd like to say about this place. In order to help you make a decision about possibly staying here I will tell you this: the walls are paper thin, and you will hear EVERYTHING going on in your neighbor's room, no matter how loud you put the volume on your TV. The doors slam (like prison cell doors, hence the title) and shake the walls when they close, unless you guide them gently,...I have stayed in several other 'extended stay' hotels in the past for both business and pleasure, and thought I knew what to expect. Knowing I would arrive in Denton late at night, I called ahead to make sure there would be a room and someone to greet me. I was assured there would be someone here. When I entered the building at midnight, I saw a phone on the wall with instructions to pick it up and dial a number for help. The line was answered by a young man who tried his best to get me to go away since I did not have a 'reservation'. He begrudgingly agreed to come down to the front to check me in. He gave me no introduction to the place except to hand me one of their brochures, yet he did a great job getting all my deposits and rent money. I am happy to report he is no longer with this location. There are so many things I'd like to say about this place. In order to help you make a decision about possibly staying here I will tell you this: the walls are paper thin, and you will hear EVERYTHING going on in your neighbor's room, no matter how loud you put the volume on your TV. The doors slam (like prison cell doors, hence the title) and shake the walls when they close, unless you guide them gently, which nobody does. You will get used to the slamming in the middle of the night, and may be able to sleep through it. People come in your room under the guise of cleaning it, but unlike an apartment they leave no note letting you know they were there. You will just know by the difference in your light switch settings. The manager is nice enough, and assured me he would put a stop to it, since I clean my own room, but someone was in my room again this week. As a single woman, I found this too creepy. The place stinks. Literally. The halls abound with stale cooking smells, and my air conditioner emits a horrible stale odor despite them being professionally cleaned in October. I try to keep my window cracked to let in fresh air, and I keep a can of Febreeze handy. The bed in my room is so hard it belongs in a mortuary, and after investing in 2 memory foam toppers, I can finally say the numbness is going away in my arms.  The tub/shower combo has a nice arched curtain rod, but mine was sagging. I could tell it had been re-positioned several times already, so I put in a request to have it fixed before it fell on my head. Each week the sag got a little lower. Each week when I paid my rent, I put in a new request to have it fixed. The lady at the front always thought my shower head was dripping. Shower rod drooping, hmmm, that's close. Finally, the third week, the manager was close by as I was putting in my weekly request, and he and a maintenance man promptly came down and fixed it. He did apologize, saying he thought it had already been taken care of. The Prison is under lock down at all times, so be sure you have your entry key with you every time you leave. And do not let it come close to your car keys or it will demagnetize.If you want internet service you will pay $10 a week for it. It is pathetically slow, but when I asked about it, a very knowledgeable gentleman (on staff) let me know how bad it used to be, and how much better it is now, and that $40/month is a great deal when you consider how much THEY have to pay for it. Which brings me to the issue that gets us all. Money. I have been in the exact same room with the exact same services for 8 weeks now.The first 5 weeks I paid the exact same amount. (Once you pass the one month mark, you no longer have to pay hotel tax.) Since that time, I have only paid the same amount twice. I've been told different reasons for the changing amount: I have a credit on my account, (unexplainable) and then 2 weeks ago the internet was down almost all week, so we were given a 'free' week once it came back up. Today, I was asked for $11 more than I have been paying. When I questioned it, I was told it was for linen service.(?) I have my own towels and do my own laundry, including the sheets originally on the bed! Then I was told it was because I had not been charged for my internet for several weeks....and the more I questioned the different amount, the more I was told        she did not understand what I did not understand. I finally just paid it and shut up. I don't usually write reviews, but I want to save as many people as I possibly can from spending their hard earned money here. There are other places around that do not nickle and dime you to death, and are much more quiet. I know with this economy, these types of places are doing a lot of business. This place may seem like a great deal, but it isn't. I hope there is no issue getting my deposit back. Heaven knows my room will be left in better condition than I found it. Concerned about the other reviewer whose charge card got charged for a week's rent after they moved out, since they always ask for it and swipe it. Be warned folks. Be wise and be safe!More</t>
   </si>
   <si>
-    <t>Bull2172</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r118000680-WoodSpring_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>118000680</t>
+  </si>
+  <si>
+    <t>09/12/2011</t>
+  </si>
+  <si>
+    <t>Credit Card Freud</t>
+  </si>
+  <si>
+    <t>I stayed at Value Place in Denton from July 22, 2011 – August 12, 2011.  Received my $100.00 Deposit on August 15, 2011,  On September 9, 2011  Value Place of Denton change my credit card a fee of $233.57 for the week of August 12, 2011.  Now this was a little confusing to me because this is a prepaid hotel and you must pay before you stay.  I checkout on August 12, 2011 and received my Deposit of $100.00 on August 15, 2011.  However this hotel is still trying to change me for August 12, 2011???? Not sure why they still have my check card information still on file.    Since the change happen September 09, 2011 (CHECK CRD PURCHASE 08/12 VALUE PLACE DENTON TX) in the amount of $233.57.  I called on September 9, 2011 and nobody knows why or can correct the problem.On September 11, 2011 I call my bank received an inquiry regarding your Wells Fargo account.  My bank takes this claim seriously and has begun an investigation.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>I stayed at Value Place in Denton from July 22, 2011 – August 12, 2011.  Received my $100.00 Deposit on August 15, 2011,  On September 9, 2011  Value Place of Denton change my credit card a fee of $233.57 for the week of August 12, 2011.  Now this was a little confusing to me because this is a prepaid hotel and you must pay before you stay.  I checkout on August 12, 2011 and received my Deposit of $100.00 on August 15, 2011.  However this hotel is still trying to change me for August 12, 2011???? Not sure why they still have my check card information still on file.    Since the change happen September 09, 2011 (CHECK CRD PURCHASE 08/12 VALUE PLACE DENTON TX) in the amount of $233.57.  I called on September 9, 2011 and nobody knows why or can correct the problem.On September 11, 2011 I call my bank received an inquiry regarding your Wells Fargo account.  My bank takes this claim seriously and has begun an investigation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r111887254-WoodSpring_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>111887254</t>
+  </si>
+  <si>
+    <t>06/06/2011</t>
+  </si>
+  <si>
+    <t>It is a shame</t>
+  </si>
+  <si>
+    <t>The hotel is generally clean and free of issues, but sadly despite how hospitable the staff has been, the site managers attitude has continually ruined my image of the company.  Constantly trying to wrangle late fees as well as other fees (unknown what for) out of guests.  My first week, I checked in late sunday evening and was told I could pay every Monday, the following Monday afternoon he shows up at my door with his 'thug' trying to evict me.  Since I have always paid on Monday evening when arrive from work, the last time I was informed I owed late fees for paying at this time.  Despite what his employees had told me prior, I was forced to pay.  I have 10 years of retail management experience and was appalled to find someone in charge with such a grotesque lack of customer relation skills. His attitude and down-talking to guests is pathetic.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>The hotel is generally clean and free of issues, but sadly despite how hospitable the staff has been, the site managers attitude has continually ruined my image of the company.  Constantly trying to wrangle late fees as well as other fees (unknown what for) out of guests.  My first week, I checked in late sunday evening and was told I could pay every Monday, the following Monday afternoon he shows up at my door with his 'thug' trying to evict me.  Since I have always paid on Monday evening when arrive from work, the last time I was informed I owed late fees for paying at this time.  Despite what his employees had told me prior, I was forced to pay.  I have 10 years of retail management experience and was appalled to find someone in charge with such a grotesque lack of customer relation skills. His attitude and down-talking to guests is pathetic.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r108001652-WoodSpring_Suites_Denton-Denton_Texas.html</t>
@@ -657,9 +910,6 @@
 I will tell you that our corporate office booked and paid for this place before we even rolled into town. Had we been made aware in the beginning that their idea of a bed is a plywood type platform with a 4 in. mattress, we would have ran...My colleagues and I were in the Denton area on extended business. Upon waking up this morning I discovered approximately 20 bites (total) on both legs. After speaking with a friend, I was advised to look online and see if the bites resembled bed bug bites. And they did. So when I returned to the motel that morning, I spoke with the person in the office and asked that the room be checked just in case. I had to leave again, but upon my return my coworkers and I were advised that we were being kicked out of the motel!! With them insinuating that I brought them in! Really? We don't have them at home because my wife saw something on the news and took precautions over a year ago to prevent them (mattress bags, etc). And this is my first sales job that has ever taken me out of town. I hate to say it, but they did not piggy back in on me or my belongings.So I gather, that since the sheets were FINALLY changed after a week that maybe your staff transferred them in with blankets, linens, etc? I will tell you that our corporate office booked and paid for this place before we even rolled into town. Had we been made aware in the beginning that their idea of a bed is a plywood type platform with a 4 in. mattress, we would have ran the other way. We should have realized something when the motel across the street was semi full and this place looked like a ghost town (and remained as such during our stay). Maybe it was because of the flat pillows, an AC unit with an attitude and a room that really stunk.At least when you go tent-camping and are on the ground, you expect the hardness and all the critters. Not when you are PAYING an establishment  basically for modern comfort and facilities!BEWARE!!!!!!!MoreShow less</t>
   </si>
   <si>
-    <t>May 2011</t>
-  </si>
-  <si>
     <t>My colleagues and I were in the Denton area on extended business. Upon waking up this morning I discovered approximately 20 bites (total) on both legs. After speaking with a friend, I was advised to look online and see if the bites resembled bed bug bites. And they did. 
 So when I returned to the motel that morning, I spoke with the person in the office and asked that the room be checked just in case. I had to leave again, but upon my return my coworkers and I were advised that we were being kicked out of the motel!! With them insinuating that I brought them in! Really? 
 We don't have them at home because my wife saw something on the news and took precautions over a year ago to prevent them (mattress bags, etc). And this is my first sales job that has ever taken me out of town. I hate to say it, but they did not piggy back in on me or my belongings.
@@ -667,9 +917,6 @@
 I will tell you that our corporate office booked and paid for this place before we even rolled into town. Had we been made aware in the beginning that their idea of a bed is a plywood type platform with a 4 in. mattress, we would have ran...My colleagues and I were in the Denton area on extended business. Upon waking up this morning I discovered approximately 20 bites (total) on both legs. After speaking with a friend, I was advised to look online and see if the bites resembled bed bug bites. And they did. So when I returned to the motel that morning, I spoke with the person in the office and asked that the room be checked just in case. I had to leave again, but upon my return my coworkers and I were advised that we were being kicked out of the motel!! With them insinuating that I brought them in! Really? We don't have them at home because my wife saw something on the news and took precautions over a year ago to prevent them (mattress bags, etc). And this is my first sales job that has ever taken me out of town. I hate to say it, but they did not piggy back in on me or my belongings.So I gather, that since the sheets were FINALLY changed after a week that maybe your staff transferred them in with blankets, linens, etc? I will tell you that our corporate office booked and paid for this place before we even rolled into town. Had we been made aware in the beginning that their idea of a bed is a plywood type platform with a 4 in. mattress, we would have ran the other way. We should have realized something when the motel across the street was semi full and this place looked like a ghost town (and remained as such during our stay). Maybe it was because of the flat pillows, an AC unit with an attitude and a room that really stunk.At least when you go tent-camping and are on the ground, you expect the hardness and all the critters. Not when you are PAYING an establishment  basically for modern comfort and facilities!BEWARE!!!!!!!More</t>
   </si>
   <si>
-    <t>burned25</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r83330329-WoodSpring_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -689,9 +936,6 @@
   </si>
   <si>
     <t>It is fairly clean and new in at first glance, I guess roaches are to be expected occasionally,I only saw 3 or 4 every week. Management was very unaccomadating making me wait 3 weeks to have room cleaned and linen changed after due to my misunderstanding missingthe scheduled cleaning day. If by chance you've made the mistake of paying for a week up front and encounter poor services or roaches and wish to leave early you will not be reembursed for any days remaining during the week. Be prepared to buy toliet paper take your trash to the dumpster, and heaven forbid don't go barefoot or according to the contract you will be evicted. No wireless so bring an ethernet cable and be ready to be nickled and dimed internet service is $10 a day. Overall I would say that this is the least customer friendly or accomidating hotel I have ever stayed in and it can not come close to measuring up to anyones expectations.More</t>
-  </si>
-  <si>
-    <t>Traveler123Waco</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d911617-r30112248-WoodSpring_Suites_Denton-Denton_Texas.html</t>
@@ -1217,133 +1461,125 @@
       <c r="A2" t="n">
         <v>57058</v>
       </c>
-      <c r="B2" t="n">
-        <v>9071</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>44</v>
       </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>47</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>4</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="O2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
         <v>55</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>56</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>57058</v>
       </c>
-      <c r="B3" t="n">
-        <v>182562</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
         <v>59</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>60</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>61</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
         <v>62</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>63</v>
       </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O3" t="s">
-        <v>65</v>
-      </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="n">
-        <v>1</v>
-      </c>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>1</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="X3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="s">
         <v>66</v>
@@ -1353,130 +1589,126 @@
       <c r="A4" t="n">
         <v>57058</v>
       </c>
-      <c r="B4" t="n">
-        <v>8642</v>
-      </c>
-      <c r="C4" t="s">
-        <v>67</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
         <v>68</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>69</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>70</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>71</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
         <v>72</v>
       </c>
-      <c r="M4" t="n">
-        <v>2</v>
-      </c>
-      <c r="N4" t="s">
-        <v>73</v>
-      </c>
       <c r="O4" t="s">
-        <v>65</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>1</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" t="s">
         <v>74</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>75</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>57058</v>
       </c>
-      <c r="B5" t="n">
-        <v>182563</v>
-      </c>
-      <c r="C5" t="s">
-        <v>77</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
         <v>78</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>79</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>80</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
         <v>81</v>
       </c>
-      <c r="L5" t="s">
-        <v>82</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
-        <v>83</v>
-      </c>
       <c r="O5" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
       <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
+      <c r="W5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X5" t="s">
+        <v>74</v>
+      </c>
       <c r="Y5" t="s">
         <v>82</v>
       </c>
@@ -1485,87 +1717,89 @@
       <c r="A6" t="n">
         <v>57058</v>
       </c>
-      <c r="B6" t="n">
-        <v>182564</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
         <v>84</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="J6" t="s">
         <v>85</v>
       </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>86</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>87</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
         <v>88</v>
       </c>
-      <c r="L6" t="s">
-        <v>89</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>83</v>
-      </c>
       <c r="O6" t="s">
-        <v>90</v>
-      </c>
-      <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
+      <c r="W6" t="s">
+        <v>89</v>
+      </c>
+      <c r="X6" t="s">
+        <v>90</v>
+      </c>
       <c r="Y6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>57058</v>
       </c>
-      <c r="B7" t="n">
-        <v>640</v>
-      </c>
-      <c r="C7" t="s">
-        <v>91</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
         <v>92</v>
       </c>
       <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
         <v>47</v>
-      </c>
-      <c r="H7" t="s">
-        <v>48</v>
       </c>
       <c r="I7" t="s">
         <v>93</v>
@@ -1580,13 +1814,13 @@
         <v>96</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
         <v>97</v>
       </c>
       <c r="O7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1597,408 +1831,360 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
+      <c r="W7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X7" t="s">
+        <v>99</v>
+      </c>
       <c r="Y7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>57058</v>
       </c>
-      <c r="B8" t="n">
-        <v>182565</v>
-      </c>
-      <c r="C8" t="s">
-        <v>99</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
         <v>47</v>
       </c>
-      <c r="H8" t="s">
-        <v>48</v>
-      </c>
       <c r="I8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O8" t="s">
-        <v>65</v>
-      </c>
-      <c r="P8" t="n">
-        <v>5</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
-      <c r="R8" t="n">
-        <v>5</v>
-      </c>
+      <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>5</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>57058</v>
       </c>
-      <c r="B9" t="n">
-        <v>182566</v>
-      </c>
-      <c r="C9" t="s">
-        <v>107</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
         <v>47</v>
       </c>
-      <c r="H9" t="s">
-        <v>48</v>
-      </c>
       <c r="I9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="O9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P9" t="s"/>
-      <c r="Q9" t="n">
-        <v>5</v>
-      </c>
-      <c r="R9" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>57058</v>
       </c>
-      <c r="B10" t="n">
-        <v>182567</v>
-      </c>
-      <c r="C10" t="s">
-        <v>113</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>116</v>
+      </c>
+      <c r="J10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K10" t="s">
+        <v>118</v>
+      </c>
+      <c r="L10" t="s">
+        <v>119</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>114</v>
       </c>
-      <c r="G10" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" t="s">
-        <v>115</v>
-      </c>
-      <c r="J10" t="s">
-        <v>116</v>
-      </c>
-      <c r="K10" t="s">
-        <v>117</v>
-      </c>
-      <c r="L10" t="s">
-        <v>118</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="s">
-        <v>119</v>
-      </c>
       <c r="O10" t="s">
-        <v>65</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>1</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>57058</v>
       </c>
-      <c r="B11" t="n">
-        <v>123109</v>
-      </c>
-      <c r="C11" t="s">
-        <v>121</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>121</v>
+      </c>
+      <c r="J11" t="s">
         <v>122</v>
       </c>
-      <c r="G11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
         <v>123</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>124</v>
       </c>
-      <c r="K11" t="s">
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
         <v>125</v>
       </c>
-      <c r="L11" t="s">
-        <v>126</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="s">
-        <v>127</v>
-      </c>
       <c r="O11" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="P11" t="s"/>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>2</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>57058</v>
       </c>
-      <c r="B12" t="n">
-        <v>1819</v>
-      </c>
-      <c r="C12" t="s">
-        <v>129</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>128</v>
+      </c>
+      <c r="J12" t="s">
+        <v>129</v>
+      </c>
+      <c r="K12" t="s">
         <v>130</v>
       </c>
-      <c r="G12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="L12" t="s">
         <v>131</v>
       </c>
-      <c r="J12" t="s">
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
         <v>132</v>
       </c>
-      <c r="K12" t="s">
+      <c r="O12" t="s">
         <v>133</v>
       </c>
-      <c r="L12" t="s">
-        <v>134</v>
-      </c>
-      <c r="M12" t="n">
-        <v>4</v>
-      </c>
-      <c r="N12" t="s">
-        <v>135</v>
-      </c>
-      <c r="O12" t="s">
-        <v>136</v>
-      </c>
       <c r="P12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s">
-        <v>137</v>
-      </c>
-      <c r="X12" t="s">
-        <v>138</v>
-      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>57058</v>
       </c>
-      <c r="B13" t="n">
-        <v>182568</v>
-      </c>
-      <c r="C13" t="s">
-        <v>140</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
         <v>47</v>
       </c>
-      <c r="H13" t="s">
-        <v>48</v>
-      </c>
       <c r="I13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="J13" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="K13" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="L13" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="O13" t="s">
-        <v>136</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="P13" t="s"/>
       <c r="Q13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R13" t="n">
-        <v>5</v>
-      </c>
-      <c r="S13" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2006,67 +2192,59 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>57058</v>
       </c>
-      <c r="B14" t="n">
-        <v>182569</v>
-      </c>
-      <c r="C14" t="s">
-        <v>148</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
         <v>47</v>
       </c>
-      <c r="H14" t="s">
-        <v>48</v>
-      </c>
       <c r="I14" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="J14" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="K14" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="L14" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="O14" t="s">
-        <v>136</v>
+        <v>53</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
       </c>
-      <c r="Q14" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q14" t="s"/>
       <c r="R14" t="n">
         <v>5</v>
       </c>
-      <c r="S14" t="n">
-        <v>5</v>
-      </c>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
         <v>5</v>
@@ -2077,67 +2255,59 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>57058</v>
       </c>
-      <c r="B15" t="n">
-        <v>106745</v>
-      </c>
-      <c r="C15" t="s">
-        <v>155</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
         <v>47</v>
       </c>
-      <c r="H15" t="s">
-        <v>48</v>
-      </c>
       <c r="I15" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="J15" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="K15" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="L15" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="O15" t="s">
-        <v>65</v>
-      </c>
-      <c r="P15" t="n">
-        <v>5</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P15" t="s"/>
       <c r="Q15" t="n">
         <v>5</v>
       </c>
       <c r="R15" t="n">
         <v>5</v>
       </c>
-      <c r="S15" t="n">
-        <v>5</v>
-      </c>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
         <v>5</v>
@@ -2145,74 +2315,60 @@
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s">
-        <v>162</v>
-      </c>
-      <c r="X15" t="s">
-        <v>163</v>
-      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>57058</v>
       </c>
-      <c r="B16" t="n">
-        <v>182570</v>
-      </c>
-      <c r="C16" t="s">
-        <v>165</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
         <v>47</v>
       </c>
-      <c r="H16" t="s">
-        <v>48</v>
-      </c>
       <c r="I16" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="J16" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="K16" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="L16" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>158</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
         <v>2</v>
       </c>
-      <c r="N16" t="s">
-        <v>171</v>
-      </c>
-      <c r="O16" t="s">
-        <v>54</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>3</v>
-      </c>
-      <c r="R16" t="n">
-        <v>3</v>
-      </c>
-      <c r="S16" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
         <v>1</v>
@@ -2220,224 +2376,180 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s">
-        <v>172</v>
-      </c>
-      <c r="X16" t="s">
-        <v>173</v>
-      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>57058</v>
       </c>
-      <c r="B17" t="n">
-        <v>182571</v>
-      </c>
-      <c r="C17" t="s">
-        <v>175</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
         <v>47</v>
       </c>
-      <c r="H17" t="s">
-        <v>48</v>
-      </c>
       <c r="I17" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="J17" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="K17" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="L17" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="O17" t="s">
-        <v>136</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>1</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s">
-        <v>182</v>
-      </c>
-      <c r="X17" t="s">
-        <v>183</v>
-      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>57058</v>
       </c>
-      <c r="B18" t="n">
-        <v>182572</v>
-      </c>
-      <c r="C18" t="s">
-        <v>185</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
         <v>47</v>
       </c>
-      <c r="H18" t="s">
-        <v>48</v>
-      </c>
       <c r="I18" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="J18" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="K18" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="L18" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="O18" t="s">
-        <v>54</v>
-      </c>
-      <c r="P18" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
       <c r="R18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S18" t="n">
         <v>4</v>
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s">
-        <v>192</v>
-      </c>
-      <c r="X18" t="s">
-        <v>193</v>
-      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>57058</v>
       </c>
-      <c r="B19" t="n">
-        <v>182573</v>
-      </c>
-      <c r="C19" t="s">
-        <v>195</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
         <v>47</v>
       </c>
-      <c r="H19" t="s">
-        <v>48</v>
-      </c>
       <c r="I19" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="J19" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="K19" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="L19" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="O19" t="s">
-        <v>54</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
       <c r="Q19" t="n">
-        <v>2</v>
-      </c>
-      <c r="R19" t="n">
-        <v>4</v>
-      </c>
-      <c r="S19" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
         <v>2</v>
@@ -2448,141 +2560,133 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>57058</v>
       </c>
-      <c r="B20" t="n">
-        <v>182574</v>
-      </c>
-      <c r="C20" t="s">
-        <v>203</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
         <v>47</v>
       </c>
-      <c r="H20" t="s">
-        <v>48</v>
-      </c>
       <c r="I20" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="J20" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="K20" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="L20" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="O20" t="s">
-        <v>54</v>
+        <v>133</v>
       </c>
       <c r="P20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q20" t="n">
-        <v>1</v>
-      </c>
-      <c r="R20" t="n">
-        <v>2</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s"/>
+      <c r="W20" t="s">
+        <v>186</v>
+      </c>
+      <c r="X20" t="s">
+        <v>187</v>
+      </c>
       <c r="Y20" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>57058</v>
       </c>
-      <c r="B21" t="n">
-        <v>182575</v>
-      </c>
-      <c r="C21" t="s">
-        <v>211</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
         <v>47</v>
       </c>
-      <c r="H21" t="s">
-        <v>48</v>
-      </c>
       <c r="I21" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="J21" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="K21" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="L21" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="O21" t="s">
-        <v>54</v>
+        <v>133</v>
       </c>
       <c r="P21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2590,54 +2694,50 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>57058</v>
       </c>
-      <c r="B22" t="n">
-        <v>182576</v>
-      </c>
-      <c r="C22" t="s">
-        <v>219</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
         <v>47</v>
       </c>
-      <c r="H22" t="s">
-        <v>48</v>
-      </c>
       <c r="I22" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="J22" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="K22" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="L22" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="O22" t="s">
-        <v>54</v>
+        <v>133</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -2646,7 +2746,7 @@
         <v>5</v>
       </c>
       <c r="R22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -2658,14 +2758,962 @@
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s">
-        <v>192</v>
-      </c>
-      <c r="X22" t="s">
-        <v>193</v>
-      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
       <c r="Y22" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>57058</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>202</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>203</v>
+      </c>
+      <c r="J23" t="s">
+        <v>204</v>
+      </c>
+      <c r="K23" t="s">
+        <v>205</v>
+      </c>
+      <c r="L23" t="s">
+        <v>206</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>207</v>
+      </c>
+      <c r="O23" t="s">
+        <v>133</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>57058</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>209</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>210</v>
+      </c>
+      <c r="J24" t="s">
+        <v>211</v>
+      </c>
+      <c r="K24" t="s">
+        <v>212</v>
+      </c>
+      <c r="L24" t="s">
+        <v>213</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>214</v>
+      </c>
+      <c r="O24" t="s">
+        <v>133</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>57058</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>215</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>216</v>
+      </c>
+      <c r="J25" t="s">
+        <v>217</v>
+      </c>
+      <c r="K25" t="s">
+        <v>218</v>
+      </c>
+      <c r="L25" t="s">
+        <v>219</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>220</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>221</v>
+      </c>
+      <c r="X25" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>57058</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>224</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>225</v>
+      </c>
+      <c r="J26" t="s">
         <v>226</v>
+      </c>
+      <c r="K26" t="s">
+        <v>227</v>
+      </c>
+      <c r="L26" t="s">
+        <v>228</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>229</v>
+      </c>
+      <c r="O26" t="s">
+        <v>63</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>230</v>
+      </c>
+      <c r="X26" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>57058</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>233</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>234</v>
+      </c>
+      <c r="J27" t="s">
+        <v>235</v>
+      </c>
+      <c r="K27" t="s">
+        <v>236</v>
+      </c>
+      <c r="L27" t="s">
+        <v>237</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>238</v>
+      </c>
+      <c r="O27" t="s">
+        <v>63</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>221</v>
+      </c>
+      <c r="X27" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>57058</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>240</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>241</v>
+      </c>
+      <c r="J28" t="s">
+        <v>242</v>
+      </c>
+      <c r="K28" t="s">
+        <v>243</v>
+      </c>
+      <c r="L28" t="s">
+        <v>244</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>207</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>245</v>
+      </c>
+      <c r="X28" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>57058</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>248</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>249</v>
+      </c>
+      <c r="J29" t="s">
+        <v>250</v>
+      </c>
+      <c r="K29" t="s">
+        <v>251</v>
+      </c>
+      <c r="L29" t="s">
+        <v>252</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>253</v>
+      </c>
+      <c r="O29" t="s">
+        <v>133</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>254</v>
+      </c>
+      <c r="X29" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>57058</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>257</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>258</v>
+      </c>
+      <c r="J30" t="s">
+        <v>259</v>
+      </c>
+      <c r="K30" t="s">
+        <v>260</v>
+      </c>
+      <c r="L30" t="s">
+        <v>261</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>262</v>
+      </c>
+      <c r="O30" t="s">
+        <v>63</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>263</v>
+      </c>
+      <c r="X30" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>57058</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>266</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>267</v>
+      </c>
+      <c r="J31" t="s">
+        <v>268</v>
+      </c>
+      <c r="K31" t="s">
+        <v>269</v>
+      </c>
+      <c r="L31" t="s">
+        <v>270</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>271</v>
+      </c>
+      <c r="O31" t="s">
+        <v>63</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>2</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>57058</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>273</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>274</v>
+      </c>
+      <c r="J32" t="s">
+        <v>275</v>
+      </c>
+      <c r="K32" t="s">
+        <v>276</v>
+      </c>
+      <c r="L32" t="s">
+        <v>277</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>278</v>
+      </c>
+      <c r="O32" t="s">
+        <v>63</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>57058</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>280</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>281</v>
+      </c>
+      <c r="J33" t="s">
+        <v>282</v>
+      </c>
+      <c r="K33" t="s">
+        <v>283</v>
+      </c>
+      <c r="L33" t="s">
+        <v>284</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>285</v>
+      </c>
+      <c r="O33" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>57058</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>287</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>288</v>
+      </c>
+      <c r="J34" t="s">
+        <v>289</v>
+      </c>
+      <c r="K34" t="s">
+        <v>290</v>
+      </c>
+      <c r="L34" t="s">
+        <v>291</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>285</v>
+      </c>
+      <c r="O34" t="s">
+        <v>63</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>57058</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>293</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>294</v>
+      </c>
+      <c r="J35" t="s">
+        <v>295</v>
+      </c>
+      <c r="K35" t="s">
+        <v>296</v>
+      </c>
+      <c r="L35" t="s">
+        <v>297</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>298</v>
+      </c>
+      <c r="O35" t="s">
+        <v>63</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>57058</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>300</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>301</v>
+      </c>
+      <c r="J36" t="s">
+        <v>302</v>
+      </c>
+      <c r="K36" t="s">
+        <v>303</v>
+      </c>
+      <c r="L36" t="s">
+        <v>304</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>305</v>
+      </c>
+      <c r="O36" t="s">
+        <v>63</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>263</v>
+      </c>
+      <c r="X36" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>306</v>
       </c>
     </row>
   </sheetData>
